--- a/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_pressure.xlsx
+++ b/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_pressure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,8 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ratio Moyennes</t>
+          <t>Diff Moyennes
+(données normalisées)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -487,65 +488,65 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.198</v>
+        <v>16.44420622302976</v>
       </c>
       <c r="C2" t="n">
-        <v>1.026</v>
+        <v>13.90602696299291</v>
       </c>
       <c r="D2" t="n">
-        <v>1.167641325536062</v>
+        <v>0.730778064509455</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2055966925804012</v>
+        <v>3.286855172873676</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1777156637521216</v>
+        <v>2.518183137823391</v>
       </c>
       <c r="G2" t="n">
-        <v>0.88</v>
+        <v>11.61764705882353</v>
       </c>
       <c r="H2" t="n">
-        <v>0.84</v>
+        <v>10.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.44</v>
+        <v>20.64705882352941</v>
       </c>
       <c r="J2" t="n">
-        <v>1.42</v>
+        <v>19.05555555555556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_low_pressure_per_match</t>
+          <t>count_low_pressures_received_in_sample</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.02</v>
+        <v>20.66127186009539</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8793333333333333</v>
+        <v>17.84351047199344</v>
       </c>
       <c r="D3" t="n">
-        <v>1.159969673995451</v>
+        <v>0.722221470355539</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1935200248036363</v>
+        <v>2.980514754574089</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1649877340318133</v>
+        <v>2.896110231719037</v>
       </c>
       <c r="G3" t="n">
-        <v>0.72</v>
+        <v>16.55882352941176</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6899999999999999</v>
+        <v>12.53333333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>1.25</v>
+        <v>24.79411764705882</v>
       </c>
       <c r="J3" t="n">
-        <v>1.25</v>
+        <v>23.80555555555556</v>
       </c>
     </row>
     <row r="4">
@@ -555,813 +556,813 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.504</v>
+        <v>20.66127186009539</v>
       </c>
       <c r="C4" t="n">
-        <v>1.316</v>
+        <v>17.84351047199344</v>
       </c>
       <c r="D4" t="n">
-        <v>1.142857142857143</v>
+        <v>0.722221470355539</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1721336689901194</v>
+        <v>2.980514754574089</v>
       </c>
       <c r="F4" t="n">
-        <v>0.202618571987579</v>
+        <v>2.896110231719037</v>
       </c>
       <c r="G4" t="n">
-        <v>1.25</v>
+        <v>16.55882352941176</v>
       </c>
       <c r="H4" t="n">
-        <v>1.07</v>
+        <v>12.53333333333333</v>
       </c>
       <c r="I4" t="n">
-        <v>1.72</v>
+        <v>24.79411764705882</v>
       </c>
       <c r="J4" t="n">
-        <v>1.78</v>
+        <v>23.80555555555556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_completed_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.252</v>
+        <v>13.99789234612764</v>
       </c>
       <c r="C5" t="n">
-        <v>1.102</v>
+        <v>11.90863553714947</v>
       </c>
       <c r="D5" t="n">
-        <v>1.136116152450091</v>
+        <v>0.6670883998451925</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1762668431668304</v>
+        <v>3.074838972670156</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1854030358820635</v>
+        <v>2.299451300683096</v>
       </c>
       <c r="G5" t="n">
-        <v>0.99</v>
+        <v>9.470588235294118</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>1.47</v>
+        <v>17.94117647058824</v>
       </c>
       <c r="J5" t="n">
-        <v>1.54</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.492</v>
+        <v>1.97840563252328</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4406666666666667</v>
+        <v>1.769492970112165</v>
       </c>
       <c r="D6" t="n">
-        <v>1.116490166414523</v>
+        <v>0.6456632162450029</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07293833011524187</v>
+        <v>0.1711182552586951</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06808258290662962</v>
+        <v>0.2820509854470478</v>
       </c>
       <c r="G6" t="n">
-        <v>0.44</v>
+        <v>1.764705882352941</v>
       </c>
       <c r="H6" t="n">
-        <v>0.33</v>
+        <v>1.366666666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>0.62</v>
+        <v>2.205882352941177</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6</v>
+        <v>2.378378378378379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
+          <t>count_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.244</v>
+        <v>17.18240290710879</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2206666666666667</v>
+        <v>14.95678970675875</v>
       </c>
       <c r="D7" t="n">
-        <v>1.105740181268882</v>
+        <v>0.6375254081667688</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07021395872616783</v>
+        <v>2.926538285548403</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04542917040635371</v>
+        <v>2.609126962188077</v>
       </c>
       <c r="G7" t="n">
-        <v>0.19</v>
+        <v>13.08823529411765</v>
       </c>
       <c r="H7" t="n">
-        <v>0.13</v>
+        <v>10.63333333333333</v>
       </c>
       <c r="I7" t="n">
-        <v>0.36</v>
+        <v>21.14705882352941</v>
       </c>
       <c r="J7" t="n">
-        <v>0.29</v>
+        <v>20.66666666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.144</v>
+        <v>6.725087440381557</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1313333333333334</v>
+        <v>5.975588935805654</v>
       </c>
       <c r="D8" t="n">
-        <v>1.096446700507614</v>
+        <v>0.5901094631753355</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01140175425099138</v>
+        <v>0.8965547481966518</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01995232412766087</v>
+        <v>0.9928622511240921</v>
       </c>
       <c r="G8" t="n">
-        <v>0.13</v>
+        <v>6.088235294117647</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>0.16</v>
+        <v>8.294117647058824</v>
       </c>
       <c r="J8" t="n">
-        <v>0.17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
+          <t>ball_retention_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6340000000000001</v>
+        <v>706.5324394276629</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5920000000000001</v>
+        <v>642.9859530979373</v>
       </c>
       <c r="D9" t="n">
-        <v>1.070945945945946</v>
+        <v>0.5663912274639588</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06465291950097843</v>
+        <v>84.3440496042695</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09096310083921785</v>
+        <v>70.59087324601806</v>
       </c>
       <c r="G9" t="n">
-        <v>0.54</v>
+        <v>586.0791176470588</v>
       </c>
       <c r="H9" t="n">
-        <v>0.45</v>
+        <v>509.8813333333334</v>
       </c>
       <c r="I9" t="n">
-        <v>0.72</v>
+        <v>816.5691176470588</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8</v>
+        <v>764.6413513513513</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
+          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.074</v>
+        <v>388.5896032250738</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06933333333333333</v>
+        <v>406.7337256982325</v>
       </c>
       <c r="D10" t="n">
-        <v>1.067307692307692</v>
+        <v>0.5276837388005876</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01673320053068152</v>
+        <v>20.60182186452229</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01162919151265879</v>
+        <v>29.10196995885055</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06</v>
+        <v>358.5832352941176</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05</v>
+        <v>362.1673333333334</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1</v>
+        <v>413.4314705882353</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09</v>
+        <v>473.6541666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_low_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.308</v>
+        <v>276.9125519872814</v>
       </c>
       <c r="C11" t="n">
-        <v>0.29</v>
+        <v>260.1857839141824</v>
       </c>
       <c r="D11" t="n">
-        <v>1.062068965517242</v>
+        <v>0.427448019881962</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04147288270665544</v>
+        <v>12.07178784393089</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04157609203101499</v>
+        <v>27.71764320530325</v>
       </c>
       <c r="G11" t="n">
-        <v>0.27</v>
+        <v>257.9405882352941</v>
       </c>
       <c r="H11" t="n">
-        <v>0.21</v>
+        <v>216</v>
       </c>
       <c r="I11" t="n">
-        <v>0.37</v>
+        <v>287.7455882352941</v>
       </c>
       <c r="J11" t="n">
-        <v>0.35</v>
+        <v>312.2064705882353</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.324</v>
+        <v>90.9231970928912</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3066666666666668</v>
+        <v>82.93697077196612</v>
       </c>
       <c r="D12" t="n">
-        <v>1.056521739130434</v>
+        <v>0.4214527496940464</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04159326868617085</v>
+        <v>22.44366109180304</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05340768626687505</v>
+        <v>13.74098629520666</v>
       </c>
       <c r="G12" t="n">
-        <v>0.27</v>
+        <v>67.64705882352941</v>
       </c>
       <c r="H12" t="n">
-        <v>0.24</v>
+        <v>64.47368421052632</v>
       </c>
       <c r="I12" t="n">
-        <v>0.38</v>
+        <v>123.5294117647059</v>
       </c>
       <c r="J12" t="n">
-        <v>0.43</v>
+        <v>109.4594594594595</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_medium_pressure_per_match</t>
+          <t>pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.718</v>
+        <v>650.5054457869634</v>
       </c>
       <c r="C13" t="n">
-        <v>4.477333333333333</v>
+        <v>601.8108539033545</v>
       </c>
       <c r="D13" t="n">
-        <v>1.053752233472305</v>
+        <v>0.4079009245501724</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5696665691437406</v>
+        <v>93.40112006654824</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5629700152718955</v>
+        <v>75.28883732162251</v>
       </c>
       <c r="G13" t="n">
-        <v>3.76</v>
+        <v>508.3341176470589</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>472.167</v>
       </c>
       <c r="I13" t="n">
-        <v>5.28</v>
+        <v>763.8858823529412</v>
       </c>
       <c r="J13" t="n">
-        <v>5.82</v>
+        <v>720.7654054054054</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_medium_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.52</v>
+        <v>8.684456052691347</v>
       </c>
       <c r="C14" t="n">
-        <v>5.278</v>
+        <v>8.059098668448513</v>
       </c>
       <c r="D14" t="n">
-        <v>1.045850701023115</v>
+        <v>0.3854876677135893</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5914811915860048</v>
+        <v>0.7095790980671949</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6080084585877779</v>
+        <v>1.306325028648559</v>
       </c>
       <c r="G14" t="n">
-        <v>4.51</v>
+        <v>7.764705882352941</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>5.566666666666666</v>
       </c>
       <c r="I14" t="n">
-        <v>6.05</v>
+        <v>9.617647058823529</v>
       </c>
       <c r="J14" t="n">
-        <v>6.64</v>
+        <v>10.79411764705882</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.866000000000001</v>
+        <v>1.015580286168521</v>
       </c>
       <c r="C15" t="n">
-        <v>5.609333333333334</v>
+        <v>0.9326157036373756</v>
       </c>
       <c r="D15" t="n">
-        <v>1.045757071547421</v>
+        <v>0.3675383350990132</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5161201410524493</v>
+        <v>0.2489768417434201</v>
       </c>
       <c r="F15" t="n">
-        <v>0.573678190858487</v>
+        <v>0.1650791897981773</v>
       </c>
       <c r="G15" t="n">
-        <v>5.02</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="H15" t="n">
-        <v>4.75</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="I15" t="n">
-        <v>6.42</v>
+        <v>1.382352941176471</v>
       </c>
       <c r="J15" t="n">
-        <v>6.99</v>
+        <v>1.297297297297297</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.11</v>
+        <v>3.324796729502612</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1146666666666667</v>
+        <v>2.996586054109274</v>
       </c>
       <c r="D16" t="n">
-        <v>1.042424242424243</v>
+        <v>0.3648116347045781</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01870828693386971</v>
+        <v>0.8655756083881965</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01767430203377074</v>
+        <v>0.6289852228161323</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09</v>
+        <v>2.756756756756757</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="I16" t="n">
-        <v>0.13</v>
+        <v>4.764705882352941</v>
       </c>
       <c r="J16" t="n">
-        <v>0.14</v>
+        <v>3.921052631578947</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_low_pressure</t>
+          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48.14599999999999</v>
+        <v>227.2247014762662</v>
       </c>
       <c r="C17" t="n">
-        <v>50.12</v>
+        <v>208.7268290141857</v>
       </c>
       <c r="D17" t="n">
-        <v>1.041000290782204</v>
+        <v>0.3417311291910172</v>
       </c>
       <c r="E17" t="n">
-        <v>6.235569741410963</v>
+        <v>42.80738712445682</v>
       </c>
       <c r="F17" t="n">
-        <v>3.154416405160051</v>
+        <v>37.26491469392452</v>
       </c>
       <c r="G17" t="n">
-        <v>38.89</v>
+        <v>191.275</v>
       </c>
       <c r="H17" t="n">
-        <v>42.86</v>
+        <v>144.4446666666667</v>
       </c>
       <c r="I17" t="n">
-        <v>53.28</v>
+        <v>294.1182352941177</v>
       </c>
       <c r="J17" t="n">
-        <v>57.26</v>
+        <v>265.8771052631579</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_high_pressure_per_match</t>
+          <t>count_forced_losses_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.586</v>
+        <v>4.217065637065637</v>
       </c>
       <c r="C18" t="n">
-        <v>4.410666666666668</v>
+        <v>3.937483509000537</v>
       </c>
       <c r="D18" t="n">
-        <v>1.039752116082225</v>
+        <v>0.3395641983442573</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3027044763461552</v>
+        <v>0.4821714414731396</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4460856206518889</v>
+        <v>0.6259577701744767</v>
       </c>
       <c r="G18" t="n">
-        <v>4.38</v>
+        <v>3.756756756756757</v>
       </c>
       <c r="H18" t="n">
-        <v>3.82</v>
+        <v>2.433333333333333</v>
       </c>
       <c r="I18" t="n">
-        <v>5.09</v>
+        <v>4.941176470588236</v>
       </c>
       <c r="J18" t="n">
-        <v>5.26</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_per_match</t>
+          <t>count_completed_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.072</v>
+        <v>64.70206223029751</v>
       </c>
       <c r="C19" t="n">
-        <v>6.815333333333333</v>
+        <v>60.59336822850755</v>
       </c>
       <c r="D19" t="n">
-        <v>1.037660178029933</v>
+        <v>0.3341435612095444</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5354157263286166</v>
+        <v>9.437716896341296</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6185797865926047</v>
+        <v>7.622860542550139</v>
       </c>
       <c r="G19" t="n">
-        <v>6.18</v>
+        <v>49.70588235294117</v>
       </c>
       <c r="H19" t="n">
-        <v>5.89</v>
+        <v>49.58823529411764</v>
       </c>
       <c r="I19" t="n">
-        <v>7.6</v>
+        <v>75.94117647058823</v>
       </c>
       <c r="J19" t="n">
-        <v>8.199999999999999</v>
+        <v>79.21052631578948</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_in_sample</t>
+          <t>count_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3374.6</v>
+        <v>80.46615943674767</v>
       </c>
       <c r="C20" t="n">
-        <v>3253.2</v>
+        <v>75.94963900131083</v>
       </c>
       <c r="D20" t="n">
-        <v>1.037317103159966</v>
+        <v>0.3243593057258671</v>
       </c>
       <c r="E20" t="n">
-        <v>370.9336867959016</v>
+        <v>9.241856841925726</v>
       </c>
       <c r="F20" t="n">
-        <v>456.8849808368466</v>
+        <v>7.953845106899306</v>
       </c>
       <c r="G20" t="n">
-        <v>2780</v>
+        <v>66.44117647058823</v>
       </c>
       <c r="H20" t="n">
-        <v>2485</v>
+        <v>65.18181818181819</v>
       </c>
       <c r="I20" t="n">
-        <v>3717</v>
+        <v>92.38235294117646</v>
       </c>
       <c r="J20" t="n">
-        <v>4237</v>
+        <v>95.05263157894737</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>50.856</v>
+        <v>4.448803088803088</v>
       </c>
       <c r="C21" t="n">
-        <v>52.73066666666667</v>
+        <v>4.153397014480606</v>
       </c>
       <c r="D21" t="n">
-        <v>1.036862251586178</v>
+        <v>0.3142431629618028</v>
       </c>
       <c r="E21" t="n">
-        <v>8.411238315491959</v>
+        <v>0.47813222172906</v>
       </c>
       <c r="F21" t="n">
-        <v>4.172892909972079</v>
+        <v>0.7448989229644511</v>
       </c>
       <c r="G21" t="n">
-        <v>40.85</v>
+        <v>3.941176470588236</v>
       </c>
       <c r="H21" t="n">
-        <v>47.37</v>
+        <v>3.233333333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>62.67</v>
+        <v>5.058823529411764</v>
       </c>
       <c r="J21" t="n">
-        <v>59.32</v>
+        <v>5.823529411764706</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_ball_retentions_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.352</v>
+        <v>75.71143311378606</v>
       </c>
       <c r="C22" t="n">
-        <v>49.88866666666665</v>
+        <v>71.46256786036972</v>
       </c>
       <c r="D22" t="n">
-        <v>1.031780829472755</v>
+        <v>0.3101860635750931</v>
       </c>
       <c r="E22" t="n">
-        <v>3.116627985499713</v>
+        <v>9.898445423532712</v>
       </c>
       <c r="F22" t="n">
-        <v>2.441544788116931</v>
+        <v>8.172233092592354</v>
       </c>
       <c r="G22" t="n">
-        <v>44.06</v>
+        <v>59.70588235294117</v>
       </c>
       <c r="H22" t="n">
-        <v>45.55</v>
+        <v>59.76470588235294</v>
       </c>
       <c r="I22" t="n">
-        <v>51.2</v>
+        <v>87</v>
       </c>
       <c r="J22" t="n">
-        <v>53.61</v>
+        <v>90.39473684210526</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_completed_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5.915999999999999</v>
+        <v>62.83632069043833</v>
       </c>
       <c r="C23" t="n">
-        <v>5.739333333333335</v>
+        <v>59.69718299498484</v>
       </c>
       <c r="D23" t="n">
-        <v>1.030781740039493</v>
+        <v>0.2990081775857051</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3082693627333084</v>
+        <v>6.263116772058067</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4605038648304806</v>
+        <v>5.996239028568584</v>
       </c>
       <c r="G23" t="n">
-        <v>5.59</v>
+        <v>57.94117647058823</v>
       </c>
       <c r="H23" t="n">
-        <v>5.04</v>
+        <v>51.21212121212121</v>
       </c>
       <c r="I23" t="n">
-        <v>6.4</v>
+        <v>73.14705882352941</v>
       </c>
       <c r="J23" t="n">
-        <v>6.54</v>
+        <v>71.52631578947368</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
+          <t>count_medium_pressures_received_per_match</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.588</v>
+        <v>96.94037247331364</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6039999999999999</v>
+        <v>92.27754320964847</v>
       </c>
       <c r="D24" t="n">
-        <v>1.027210884353741</v>
+        <v>0.2890456138415929</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02167948338867878</v>
+        <v>9.844342872143265</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05654328304178009</v>
+        <v>8.620332165631426</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5600000000000001</v>
+        <v>81.76470588235294</v>
       </c>
       <c r="H24" t="n">
-        <v>0.53</v>
+        <v>79.78787878787878</v>
       </c>
       <c r="I24" t="n">
-        <v>0.61</v>
+        <v>109.3235294117647</v>
       </c>
       <c r="J24" t="n">
-        <v>0.76</v>
+        <v>111.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_medium_pressures_received_in_sample</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.328</v>
+        <v>96.94037247331364</v>
       </c>
       <c r="C25" t="n">
-        <v>1.294</v>
+        <v>92.27754320964847</v>
       </c>
       <c r="D25" t="n">
-        <v>1.026275115919629</v>
+        <v>0.2890456138415929</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1451550894732941</v>
+        <v>9.844342872143265</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1215847734827727</v>
+        <v>8.620332165631426</v>
       </c>
       <c r="G25" t="n">
-        <v>1.16</v>
+        <v>81.76470588235294</v>
       </c>
       <c r="H25" t="n">
-        <v>1.1</v>
+        <v>79.78787878787878</v>
       </c>
       <c r="I25" t="n">
-        <v>1.54</v>
+        <v>109.3235294117647</v>
       </c>
       <c r="J25" t="n">
-        <v>1.47</v>
+        <v>111.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_high_pressure_per_match</t>
+          <t>count_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.496</v>
+        <v>81.08403815580286</v>
       </c>
       <c r="C26" t="n">
-        <v>2.440666666666667</v>
+        <v>77.72575471696214</v>
       </c>
       <c r="D26" t="n">
-        <v>1.022671401256487</v>
+        <v>0.2616080951760286</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1939845354661035</v>
+        <v>6.714116787919712</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2163484843179324</v>
+        <v>6.552272275076396</v>
       </c>
       <c r="G26" t="n">
-        <v>2.26</v>
+        <v>76.2</v>
       </c>
       <c r="H26" t="n">
-        <v>2.16</v>
+        <v>67.53333333333333</v>
       </c>
       <c r="I26" t="n">
-        <v>2.78</v>
+        <v>92.11764705882354</v>
       </c>
       <c r="J26" t="n">
-        <v>2.85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>48.886</v>
+        <v>8.012514194867135</v>
       </c>
       <c r="C27" t="n">
-        <v>49.94666666666667</v>
+        <v>8.175167305538823</v>
       </c>
       <c r="D27" t="n">
-        <v>1.021696736625346</v>
+        <v>0.258583320647116</v>
       </c>
       <c r="E27" t="n">
-        <v>6.192530177560704</v>
+        <v>0.2836688201309853</v>
       </c>
       <c r="F27" t="n">
-        <v>5.002526028584627</v>
+        <v>0.8306341768243247</v>
       </c>
       <c r="G27" t="n">
-        <v>43.22</v>
+        <v>7.529411764705882</v>
       </c>
       <c r="H27" t="n">
-        <v>40.54</v>
+        <v>7.058823529411764</v>
       </c>
       <c r="I27" t="n">
-        <v>57.45</v>
+        <v>8.243243243243244</v>
       </c>
       <c r="J27" t="n">
-        <v>56.76</v>
+        <v>10.38888888888889</v>
       </c>
     </row>
     <row r="28">
@@ -1371,371 +1372,371 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.071999999999999</v>
+        <v>124.2124596865773</v>
       </c>
       <c r="C28" t="n">
-        <v>8.880666666666665</v>
+        <v>120.2459231343442</v>
       </c>
       <c r="D28" t="n">
-        <v>1.02154492905938</v>
+        <v>0.2128884132273271</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2753543171987684</v>
+        <v>6.737314832112652</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6230737936881573</v>
+        <v>8.574593776644964</v>
       </c>
       <c r="G28" t="n">
-        <v>8.68</v>
+        <v>118.3142857142857</v>
       </c>
       <c r="H28" t="n">
-        <v>7.98</v>
+        <v>106.9333333333333</v>
       </c>
       <c r="I28" t="n">
-        <v>9.43</v>
+        <v>135.6176470588235</v>
       </c>
       <c r="J28" t="n">
-        <v>9.960000000000001</v>
+        <v>134.2058823529412</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_high_pressure_per_match</t>
+          <t>count_high_pressures_received_in_sample</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.575999999999999</v>
+        <v>124.2124596865773</v>
       </c>
       <c r="C29" t="n">
-        <v>6.439333333333333</v>
+        <v>120.2459231343442</v>
       </c>
       <c r="D29" t="n">
-        <v>1.02122372916451</v>
+        <v>0.2128884132273271</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2302824352832842</v>
+        <v>6.737314832112652</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5492783143968699</v>
+        <v>8.574593776644964</v>
       </c>
       <c r="G29" t="n">
-        <v>6.33</v>
+        <v>118.3142857142857</v>
       </c>
       <c r="H29" t="n">
-        <v>5.66</v>
+        <v>106.9333333333333</v>
       </c>
       <c r="I29" t="n">
-        <v>6.93</v>
+        <v>135.6176470588235</v>
       </c>
       <c r="J29" t="n">
-        <v>7.13</v>
+        <v>134.2058823529412</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>count_high_pressures_received_in_sample</t>
+          <t>count_ball_retentions_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4321.4</v>
+        <v>90.07775607540313</v>
       </c>
       <c r="C30" t="n">
-        <v>4233.066666666667</v>
+        <v>87.1490756040911</v>
       </c>
       <c r="D30" t="n">
-        <v>1.020867456217714</v>
+        <v>0.1963389817713732</v>
       </c>
       <c r="E30" t="n">
-        <v>258.0984308359893</v>
+        <v>5.949603592510644</v>
       </c>
       <c r="F30" t="n">
-        <v>474.1596275316493</v>
+        <v>7.122167984691953</v>
       </c>
       <c r="G30" t="n">
-        <v>4099</v>
+        <v>83.82352941176471</v>
       </c>
       <c r="H30" t="n">
-        <v>3208</v>
+        <v>75.78787878787878</v>
       </c>
       <c r="I30" t="n">
-        <v>4611</v>
+        <v>99.64705882352941</v>
       </c>
       <c r="J30" t="n">
-        <v>4844</v>
+        <v>97.02631578947368</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_low_pressure</t>
+          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.86800000000001</v>
+        <v>1.531746536452419</v>
       </c>
       <c r="C31" t="n">
-        <v>79.43933333333332</v>
+        <v>1.568373972863137</v>
       </c>
       <c r="D31" t="n">
-        <v>1.017984373819854</v>
+        <v>0.1883804590171579</v>
       </c>
       <c r="E31" t="n">
-        <v>5.076107760873485</v>
+        <v>0.3032637683958119</v>
       </c>
       <c r="F31" t="n">
-        <v>2.479413717182427</v>
+        <v>0.2648030111761457</v>
       </c>
       <c r="G31" t="n">
-        <v>72.36</v>
+        <v>1.205882352941176</v>
       </c>
       <c r="H31" t="n">
-        <v>73.95</v>
+        <v>0.9</v>
       </c>
       <c r="I31" t="n">
-        <v>84.84</v>
+        <v>1.911764705882353</v>
       </c>
       <c r="J31" t="n">
-        <v>85.34</v>
+        <v>1.911764705882353</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
+          <t>count_forced_losses_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.6179999999999999</v>
+        <v>34.1347036111742</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6073333333333333</v>
+        <v>33.0968475302531</v>
       </c>
       <c r="D32" t="n">
-        <v>1.017563117453348</v>
+        <v>0.1857936073614382</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0637965516309463</v>
+        <v>2.345056216845116</v>
       </c>
       <c r="F32" t="n">
-        <v>0.05897537823613544</v>
+        <v>3.285744352102927</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5600000000000001</v>
+        <v>30.85714285714286</v>
       </c>
       <c r="H32" t="n">
-        <v>0.52</v>
+        <v>26.46666666666667</v>
       </c>
       <c r="I32" t="n">
-        <v>0.72</v>
+        <v>36.73529411764706</v>
       </c>
       <c r="J32" t="n">
-        <v>0.7</v>
+        <v>38.64705882352941</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_low_pressure</t>
+          <t>difficult_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>79.04600000000001</v>
+        <v>126.7692082216671</v>
       </c>
       <c r="C33" t="n">
-        <v>77.79066666666667</v>
+        <v>129.6833126511096</v>
       </c>
       <c r="D33" t="n">
-        <v>1.016137325814579</v>
+        <v>0.1834884391581471</v>
       </c>
       <c r="E33" t="n">
-        <v>5.298469590362862</v>
+        <v>25.66435145038744</v>
       </c>
       <c r="F33" t="n">
-        <v>2.790272558797967</v>
+        <v>22.20374954763213</v>
       </c>
       <c r="G33" t="n">
-        <v>70.16</v>
+        <v>103.4311764705882</v>
       </c>
       <c r="H33" t="n">
-        <v>71.53</v>
+        <v>75.83333333333333</v>
       </c>
       <c r="I33" t="n">
-        <v>83.27</v>
+        <v>165.6861764705882</v>
       </c>
       <c r="J33" t="n">
-        <v>83.93000000000001</v>
+        <v>160.0878947368421</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_medium_pressure_per_match</t>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.552</v>
+        <v>18.1374335680218</v>
       </c>
       <c r="C34" t="n">
-        <v>1.536</v>
+        <v>17.55054566608747</v>
       </c>
       <c r="D34" t="n">
-        <v>1.010416666666667</v>
+        <v>0.1781268105031929</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06870225614927064</v>
+        <v>1.978410220356796</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1140050124211337</v>
+        <v>1.935279743292363</v>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>15.77142857142857</v>
       </c>
       <c r="H34" t="n">
-        <v>1.36</v>
+        <v>12.9</v>
       </c>
       <c r="I34" t="n">
-        <v>1.67</v>
+        <v>20.35294117647059</v>
       </c>
       <c r="J34" t="n">
-        <v>1.78</v>
+        <v>20.14285714285714</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_high_pressure</t>
+          <t>pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.556</v>
+        <v>968.3066863956394</v>
       </c>
       <c r="C35" t="n">
-        <v>46.99333333333333</v>
+        <v>941.4259326190731</v>
       </c>
       <c r="D35" t="n">
-        <v>1.009393705072028</v>
+        <v>0.177017043800183</v>
       </c>
       <c r="E35" t="n">
-        <v>1.51136693096018</v>
+        <v>58.40688227116633</v>
       </c>
       <c r="F35" t="n">
-        <v>2.394635870519975</v>
+        <v>46.90636367693293</v>
       </c>
       <c r="G35" t="n">
-        <v>44.99</v>
+        <v>918.1673529411764</v>
       </c>
       <c r="H35" t="n">
-        <v>41.8</v>
+        <v>853.5494117647058</v>
       </c>
       <c r="I35" t="n">
-        <v>48.91</v>
+        <v>1057.468529411765</v>
       </c>
       <c r="J35" t="n">
-        <v>51.84</v>
+        <v>994.4837837837838</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_high_pressure</t>
+          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>77.42400000000001</v>
+        <v>8.436179877356349</v>
       </c>
       <c r="C36" t="n">
-        <v>76.74933333333333</v>
+        <v>8.238492534189129</v>
       </c>
       <c r="D36" t="n">
-        <v>1.008790521524617</v>
+        <v>0.08610991073627602</v>
       </c>
       <c r="E36" t="n">
-        <v>1.79134865394763</v>
+        <v>0.8770934444552588</v>
       </c>
       <c r="F36" t="n">
-        <v>2.691291423055021</v>
+        <v>0.9267698113214611</v>
       </c>
       <c r="G36" t="n">
-        <v>74.68000000000001</v>
+        <v>7.470588235294118</v>
       </c>
       <c r="H36" t="n">
-        <v>70.78</v>
+        <v>6.2</v>
       </c>
       <c r="I36" t="n">
-        <v>79.41</v>
+        <v>9.529411764705882</v>
       </c>
       <c r="J36" t="n">
-        <v>80.37</v>
+        <v>9.685714285714285</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_forced_losses_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.23</v>
+        <v>21.22893935952759</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2320000000000001</v>
+        <v>20.81497534927876</v>
       </c>
       <c r="D37" t="n">
-        <v>1.008695652173913</v>
+        <v>0.06558962617155374</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0187082869338697</v>
+        <v>0.8999365644935382</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0323375058672478</v>
+        <v>1.903527721944339</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2</v>
+        <v>20.41176470588235</v>
       </c>
       <c r="H37" t="n">
-        <v>0.18</v>
+        <v>16.73333333333333</v>
       </c>
       <c r="I37" t="n">
-        <v>0.25</v>
+        <v>22.32352941176471</v>
       </c>
       <c r="J37" t="n">
-        <v>0.29</v>
+        <v>24.17647058823529</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
+          <t>ball_retention_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>51.152</v>
+        <v>938.0073896434249</v>
       </c>
       <c r="C38" t="n">
-        <v>51.58799999999999</v>
+        <v>923.1639964177641</v>
       </c>
       <c r="D38" t="n">
-        <v>1.008523615889897</v>
+        <v>0.05368614393758302</v>
       </c>
       <c r="E38" t="n">
-        <v>1.772560295166289</v>
+        <v>51.30326030380571</v>
       </c>
       <c r="F38" t="n">
-        <v>4.221675699800461</v>
+        <v>38.63816455181916</v>
       </c>
       <c r="G38" t="n">
-        <v>48.57</v>
+        <v>877.3561764705883</v>
       </c>
       <c r="H38" t="n">
-        <v>42.42</v>
+        <v>833.2436666666667</v>
       </c>
       <c r="I38" t="n">
-        <v>53.03</v>
+        <v>1006.097352941176</v>
       </c>
       <c r="J38" t="n">
-        <v>58.24</v>
+        <v>982.6673684210526</v>
       </c>
     </row>
     <row r="39">
@@ -1745,31 +1746,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>77.90000000000001</v>
+        <v>960.1752529184647</v>
       </c>
       <c r="C39" t="n">
-        <v>77.32733333333333</v>
+        <v>944.3385007962769</v>
       </c>
       <c r="D39" t="n">
-        <v>1.007405746997612</v>
+        <v>0.05125726256341303</v>
       </c>
       <c r="E39" t="n">
-        <v>2.743218912154116</v>
+        <v>42.31034781315856</v>
       </c>
       <c r="F39" t="n">
-        <v>2.411399909556587</v>
+        <v>51.04090122221977</v>
       </c>
       <c r="G39" t="n">
-        <v>73.02</v>
+        <v>904.9217647058823</v>
       </c>
       <c r="H39" t="n">
-        <v>71.2</v>
+        <v>823.9516666666666</v>
       </c>
       <c r="I39" t="n">
-        <v>79.58</v>
+        <v>1012.664117647059</v>
       </c>
       <c r="J39" t="n">
-        <v>81.06999999999999</v>
+        <v>1007.309736842105</v>
       </c>
     </row>
     <row r="40">
@@ -1779,99 +1780,133 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.15599999999999</v>
+        <v>959.9945252327958</v>
       </c>
       <c r="C40" t="n">
-        <v>79.648</v>
+        <v>945.0143108041096</v>
       </c>
       <c r="D40" t="n">
-        <v>1.006378063479309</v>
+        <v>0.03804855967959743</v>
       </c>
       <c r="E40" t="n">
-        <v>3.027066236473856</v>
+        <v>43.79078225685212</v>
       </c>
       <c r="F40" t="n">
-        <v>2.435221315844385</v>
+        <v>56.75570249901521</v>
       </c>
       <c r="G40" t="n">
-        <v>74.81</v>
+        <v>892.7285294117647</v>
       </c>
       <c r="H40" t="n">
-        <v>73.69</v>
+        <v>809.329</v>
       </c>
       <c r="I40" t="n">
-        <v>82.2</v>
+        <v>1006.850588235294</v>
       </c>
       <c r="J40" t="n">
-        <v>83.33</v>
+        <v>1013.453421052632</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.212</v>
+        <v>3.165932318873495</v>
       </c>
       <c r="C41" t="n">
-        <v>1.21</v>
+        <v>3.119518297598793</v>
       </c>
       <c r="D41" t="n">
-        <v>1.001652892561983</v>
+        <v>0.02067454320393772</v>
       </c>
       <c r="E41" t="n">
-        <v>0.04604345773288539</v>
+        <v>0.3135114683929804</v>
       </c>
       <c r="F41" t="n">
-        <v>0.09935506313937188</v>
+        <v>0.4549432044393014</v>
       </c>
       <c r="G41" t="n">
-        <v>1.17</v>
+        <v>2.705882352941177</v>
       </c>
       <c r="H41" t="n">
-        <v>1.09</v>
+        <v>2.1</v>
       </c>
       <c r="I41" t="n">
-        <v>1.29</v>
+        <v>3.588235294117647</v>
       </c>
       <c r="J41" t="n">
-        <v>1.48</v>
+        <v>3.882352941176471</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_high_pressure</t>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>72.49600000000001</v>
+        <v>16.59984101748808</v>
       </c>
       <c r="C42" t="n">
-        <v>72.45466666666667</v>
+        <v>16.39540047586487</v>
       </c>
       <c r="D42" t="n">
-        <v>1.00057047165124</v>
+        <v>0.005266956470221676</v>
       </c>
       <c r="E42" t="n">
-        <v>1.777169097187997</v>
+        <v>0.6327051077895033</v>
       </c>
       <c r="F42" t="n">
-        <v>2.238375899322246</v>
+        <v>1.536861269892184</v>
       </c>
       <c r="G42" t="n">
-        <v>69.53</v>
+        <v>15.91176470588235</v>
       </c>
       <c r="H42" t="n">
-        <v>67.27</v>
+        <v>13.96666666666667</v>
       </c>
       <c r="I42" t="n">
-        <v>73.92</v>
+        <v>17.32352941176471</v>
       </c>
       <c r="J42" t="n">
-        <v>76.26000000000001</v>
+        <v>20.13888888888889</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>difficult_pass_completion_ratio_under_high_pressure</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>414.3800784465137</v>
+      </c>
+      <c r="C43" t="n">
+        <v>409.2681159078422</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.00383868476451712</v>
+      </c>
+      <c r="E43" t="n">
+        <v>31.0170431250632</v>
+      </c>
+      <c r="F43" t="n">
+        <v>31.68787129700418</v>
+      </c>
+      <c r="G43" t="n">
+        <v>387.9182857142857</v>
+      </c>
+      <c r="H43" t="n">
+        <v>351.9446666666666</v>
+      </c>
+      <c r="I43" t="n">
+        <v>455.1320588235294</v>
+      </c>
+      <c r="J43" t="n">
+        <v>463.1771428571429</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_pressure.xlsx
+++ b/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_pressure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,8 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Diff Moyennes
-(données normalisées)</t>
+          <t>Diff. Top 5 avec Bottom 15 en %</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -494,7 +493,7 @@
         <v>13.90602696299291</v>
       </c>
       <c r="D2" t="n">
-        <v>0.730778064509455</v>
+        <v>18.25</v>
       </c>
       <c r="E2" t="n">
         <v>3.286855172873676</v>
@@ -518,35 +517,35 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>count_low_pressures_received_in_sample</t>
+          <t>count_completed_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.66127186009539</v>
+        <v>13.99789234612764</v>
       </c>
       <c r="C3" t="n">
-        <v>17.84351047199344</v>
+        <v>11.90863553714947</v>
       </c>
       <c r="D3" t="n">
-        <v>0.722221470355539</v>
+        <v>17.54</v>
       </c>
       <c r="E3" t="n">
-        <v>2.980514754574089</v>
+        <v>3.074838972670156</v>
       </c>
       <c r="F3" t="n">
-        <v>2.896110231719037</v>
+        <v>2.299451300683096</v>
       </c>
       <c r="G3" t="n">
-        <v>16.55882352941176</v>
+        <v>9.470588235294118</v>
       </c>
       <c r="H3" t="n">
-        <v>12.53333333333333</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>24.79411764705882</v>
+        <v>17.94117647058824</v>
       </c>
       <c r="J3" t="n">
-        <v>23.80555555555556</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="4">
@@ -562,7 +561,7 @@
         <v>17.84351047199344</v>
       </c>
       <c r="D4" t="n">
-        <v>0.722221470355539</v>
+        <v>15.79</v>
       </c>
       <c r="E4" t="n">
         <v>2.980514754574089</v>
@@ -586,137 +585,137 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_low_pressure_per_match</t>
+          <t>count_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.99789234612764</v>
+        <v>17.18240290710879</v>
       </c>
       <c r="C5" t="n">
-        <v>11.90863553714947</v>
+        <v>14.95678970675875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6670883998451925</v>
+        <v>14.88</v>
       </c>
       <c r="E5" t="n">
-        <v>3.074838972670156</v>
+        <v>2.926538285548403</v>
       </c>
       <c r="F5" t="n">
-        <v>2.299451300683096</v>
+        <v>2.609126962188077</v>
       </c>
       <c r="G5" t="n">
-        <v>9.470588235294118</v>
+        <v>13.08823529411765</v>
       </c>
       <c r="H5" t="n">
-        <v>8.699999999999999</v>
+        <v>10.63333333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>17.94117647058824</v>
+        <v>21.14705882352941</v>
       </c>
       <c r="J5" t="n">
-        <v>16.75</v>
+        <v>20.66666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.97840563252328</v>
+        <v>6.725087440381557</v>
       </c>
       <c r="C6" t="n">
-        <v>1.769492970112165</v>
+        <v>5.975588935805654</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6456632162450029</v>
+        <v>12.54</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1711182552586951</v>
+        <v>0.8965547481966518</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2820509854470478</v>
+        <v>0.9928622511240921</v>
       </c>
       <c r="G6" t="n">
-        <v>1.764705882352941</v>
+        <v>6.088235294117647</v>
       </c>
       <c r="H6" t="n">
-        <v>1.366666666666667</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>2.205882352941177</v>
+        <v>8.294117647058824</v>
       </c>
       <c r="J6" t="n">
-        <v>2.378378378378379</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.18240290710879</v>
+        <v>1.97840563252328</v>
       </c>
       <c r="C7" t="n">
-        <v>14.95678970675875</v>
+        <v>1.769492970112165</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6375254081667688</v>
+        <v>11.81</v>
       </c>
       <c r="E7" t="n">
-        <v>2.926538285548403</v>
+        <v>0.1711182552586951</v>
       </c>
       <c r="F7" t="n">
-        <v>2.609126962188077</v>
+        <v>0.2820509854470478</v>
       </c>
       <c r="G7" t="n">
-        <v>13.08823529411765</v>
+        <v>1.764705882352941</v>
       </c>
       <c r="H7" t="n">
-        <v>10.63333333333333</v>
+        <v>1.366666666666667</v>
       </c>
       <c r="I7" t="n">
-        <v>21.14705882352941</v>
+        <v>2.205882352941177</v>
       </c>
       <c r="J7" t="n">
-        <v>20.66666666666667</v>
+        <v>2.378378378378379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.725087440381557</v>
+        <v>3.324796729502612</v>
       </c>
       <c r="C8" t="n">
-        <v>5.975588935805654</v>
+        <v>2.996586054109274</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5901094631753355</v>
+        <v>10.95</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8965547481966518</v>
+        <v>0.8655756083881965</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9928622511240921</v>
+        <v>0.6289852228161323</v>
       </c>
       <c r="G8" t="n">
-        <v>6.088235294117647</v>
+        <v>2.756756756756757</v>
       </c>
       <c r="H8" t="n">
-        <v>4.166666666666667</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="I8" t="n">
-        <v>8.294117647058824</v>
+        <v>4.764705882352941</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>3.921052631578947</v>
       </c>
     </row>
     <row r="9">
@@ -726,99 +725,99 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>706.5324394276629</v>
+        <v>51.53878078855337</v>
       </c>
       <c r="C9" t="n">
-        <v>642.9859530979373</v>
+        <v>47.29567759759507</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5663912274639588</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>84.3440496042695</v>
+        <v>4.67006289449726</v>
       </c>
       <c r="F9" t="n">
-        <v>70.59087324601806</v>
+        <v>4.705476750956717</v>
       </c>
       <c r="G9" t="n">
-        <v>586.0791176470588</v>
+        <v>44.14106987130517</v>
       </c>
       <c r="H9" t="n">
-        <v>509.8813333333334</v>
+        <v>38.65971590174531</v>
       </c>
       <c r="I9" t="n">
-        <v>816.5691176470588</v>
+        <v>56.7116636219173</v>
       </c>
       <c r="J9" t="n">
-        <v>764.6413513513513</v>
+        <v>55.14459094959095</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>388.5896032250738</v>
+        <v>1.015580286168521</v>
       </c>
       <c r="C10" t="n">
-        <v>406.7337256982325</v>
+        <v>0.9326157036373756</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5276837388005876</v>
+        <v>8.9</v>
       </c>
       <c r="E10" t="n">
-        <v>20.60182186452229</v>
+        <v>0.2489768417434201</v>
       </c>
       <c r="F10" t="n">
-        <v>29.10196995885055</v>
+        <v>0.1650791897981773</v>
       </c>
       <c r="G10" t="n">
-        <v>358.5832352941176</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="H10" t="n">
-        <v>362.1673333333334</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="I10" t="n">
-        <v>413.4314705882353</v>
+        <v>1.382352941176471</v>
       </c>
       <c r="J10" t="n">
-        <v>473.6541666666666</v>
+        <v>1.297297297297297</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
+          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.9125519872814</v>
+        <v>16.6820540806678</v>
       </c>
       <c r="C11" t="n">
-        <v>260.1857839141824</v>
+        <v>15.40014366225407</v>
       </c>
       <c r="D11" t="n">
-        <v>0.427448019881962</v>
+        <v>8.32</v>
       </c>
       <c r="E11" t="n">
-        <v>12.07178784393089</v>
+        <v>3.412813401062691</v>
       </c>
       <c r="F11" t="n">
-        <v>27.71764320530325</v>
+        <v>2.576850835240277</v>
       </c>
       <c r="G11" t="n">
-        <v>257.9405882352941</v>
+        <v>13.81336425951499</v>
       </c>
       <c r="H11" t="n">
-        <v>216</v>
+        <v>10.67449132685496</v>
       </c>
       <c r="I11" t="n">
-        <v>287.7455882352941</v>
+        <v>22.11362828348123</v>
       </c>
       <c r="J11" t="n">
-        <v>312.2064705882353</v>
+        <v>19.47783986189249</v>
       </c>
     </row>
     <row r="12">
@@ -828,269 +827,269 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>90.9231970928912</v>
+        <v>6.644031405344347</v>
       </c>
       <c r="C12" t="n">
-        <v>82.93697077196612</v>
+        <v>6.160046884120097</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4214527496940464</v>
+        <v>7.86</v>
       </c>
       <c r="E12" t="n">
-        <v>22.44366109180304</v>
+        <v>1.394073495150542</v>
       </c>
       <c r="F12" t="n">
-        <v>13.74098629520666</v>
+        <v>1.016059191648198</v>
       </c>
       <c r="G12" t="n">
-        <v>67.64705882352941</v>
+        <v>5.19673953497483</v>
       </c>
       <c r="H12" t="n">
-        <v>64.47368421052632</v>
+        <v>4.722733406943934</v>
       </c>
       <c r="I12" t="n">
-        <v>123.5294117647059</v>
+        <v>8.498707175177763</v>
       </c>
       <c r="J12" t="n">
-        <v>109.4594594594595</v>
+        <v>7.645777645777646</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_low_pressure</t>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>650.5054457869634</v>
+        <v>8.684456052691347</v>
       </c>
       <c r="C13" t="n">
-        <v>601.8108539033545</v>
+        <v>8.059098668448513</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4079009245501724</v>
+        <v>7.76</v>
       </c>
       <c r="E13" t="n">
-        <v>93.40112006654824</v>
+        <v>0.7095790980671949</v>
       </c>
       <c r="F13" t="n">
-        <v>75.28883732162251</v>
+        <v>1.306325028648559</v>
       </c>
       <c r="G13" t="n">
-        <v>508.3341176470589</v>
+        <v>7.764705882352941</v>
       </c>
       <c r="H13" t="n">
-        <v>472.167</v>
+        <v>5.566666666666666</v>
       </c>
       <c r="I13" t="n">
-        <v>763.8858823529412</v>
+        <v>9.617647058823529</v>
       </c>
       <c r="J13" t="n">
-        <v>720.7654054054054</v>
+        <v>10.79411764705882</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
+          <t>pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.684456052691347</v>
+        <v>47.57211644904633</v>
       </c>
       <c r="C14" t="n">
-        <v>8.059098668448513</v>
+        <v>44.27820506078008</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3854876677135893</v>
+        <v>7.44</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7095790980671949</v>
+        <v>5.510077850652313</v>
       </c>
       <c r="F14" t="n">
-        <v>1.306325028648559</v>
+        <v>5.145809181605581</v>
       </c>
       <c r="G14" t="n">
-        <v>7.764705882352941</v>
+        <v>38.48783753991107</v>
       </c>
       <c r="H14" t="n">
-        <v>5.566666666666666</v>
+        <v>35.90740390002155</v>
       </c>
       <c r="I14" t="n">
-        <v>9.617647058823529</v>
+        <v>53.10906888209829</v>
       </c>
       <c r="J14" t="n">
-        <v>10.79411764705882</v>
+        <v>52.44234675412307</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.015580286168521</v>
+        <v>4.448803088803088</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9326157036373756</v>
+        <v>4.153397014480606</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3675383350990132</v>
+        <v>7.11</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2489768417434201</v>
+        <v>0.47813222172906</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1650791897981773</v>
+        <v>0.7448989229644511</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7837837837837838</v>
+        <v>3.941176470588236</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7105263157894737</v>
+        <v>3.233333333333333</v>
       </c>
       <c r="I15" t="n">
-        <v>1.382352941176471</v>
+        <v>5.058823529411764</v>
       </c>
       <c r="J15" t="n">
-        <v>1.297297297297297</v>
+        <v>5.823529411764706</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
+          <t>count_forced_losses_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.324796729502612</v>
+        <v>4.217065637065637</v>
       </c>
       <c r="C16" t="n">
-        <v>2.996586054109274</v>
+        <v>3.937483509000537</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3648116347045781</v>
+        <v>7.1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8655756083881965</v>
+        <v>0.4821714414731396</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6289852228161323</v>
+        <v>0.6259577701744767</v>
       </c>
       <c r="G16" t="n">
-        <v>2.756756756756757</v>
+        <v>3.756756756756757</v>
       </c>
       <c r="H16" t="n">
-        <v>1.818181818181818</v>
+        <v>2.433333333333333</v>
       </c>
       <c r="I16" t="n">
-        <v>4.764705882352941</v>
+        <v>4.941176470588236</v>
       </c>
       <c r="J16" t="n">
-        <v>3.921052631578947</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_completed_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>227.2247014762662</v>
+        <v>64.70206223029751</v>
       </c>
       <c r="C17" t="n">
-        <v>208.7268290141857</v>
+        <v>60.59336822850755</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3417311291910172</v>
+        <v>6.78</v>
       </c>
       <c r="E17" t="n">
-        <v>42.80738712445682</v>
+        <v>9.437716896341296</v>
       </c>
       <c r="F17" t="n">
-        <v>37.26491469392452</v>
+        <v>7.622860542550139</v>
       </c>
       <c r="G17" t="n">
-        <v>191.275</v>
+        <v>49.70588235294117</v>
       </c>
       <c r="H17" t="n">
-        <v>144.4446666666667</v>
+        <v>49.58823529411764</v>
       </c>
       <c r="I17" t="n">
-        <v>294.1182352941177</v>
+        <v>75.94117647058823</v>
       </c>
       <c r="J17" t="n">
-        <v>265.8771052631579</v>
+        <v>79.21052631578948</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_low_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.217065637065637</v>
+        <v>20.21586431144839</v>
       </c>
       <c r="C18" t="n">
-        <v>3.937483509000537</v>
+        <v>19.0728455396376</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3395641983442573</v>
+        <v>5.99</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4821714414731396</v>
+        <v>0.9720461937484423</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6259577701744767</v>
+        <v>1.892755089838451</v>
       </c>
       <c r="G18" t="n">
-        <v>3.756756756756757</v>
+        <v>19.52797219334719</v>
       </c>
       <c r="H18" t="n">
-        <v>2.433333333333333</v>
+        <v>15.75512140240712</v>
       </c>
       <c r="I18" t="n">
-        <v>4.941176470588236</v>
+        <v>21.82693802276155</v>
       </c>
       <c r="J18" t="n">
-        <v>4.75</v>
+        <v>22.72013149595503</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_medium_pressure_per_match</t>
+          <t>count_ball_retentions_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.70206223029751</v>
+        <v>75.71143311378606</v>
       </c>
       <c r="C19" t="n">
-        <v>60.59336822850755</v>
+        <v>71.46256786036972</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3341435612095444</v>
+        <v>5.95</v>
       </c>
       <c r="E19" t="n">
-        <v>9.437716896341296</v>
+        <v>9.898445423532712</v>
       </c>
       <c r="F19" t="n">
-        <v>7.622860542550139</v>
+        <v>8.172233092592354</v>
       </c>
       <c r="G19" t="n">
-        <v>49.70588235294117</v>
+        <v>59.70588235294117</v>
       </c>
       <c r="H19" t="n">
-        <v>49.58823529411764</v>
+        <v>59.76470588235294</v>
       </c>
       <c r="I19" t="n">
-        <v>75.94117647058823</v>
+        <v>87</v>
       </c>
       <c r="J19" t="n">
-        <v>79.21052631578948</v>
+        <v>90.39473684210526</v>
       </c>
     </row>
     <row r="20">
@@ -1106,7 +1105,7 @@
         <v>75.94963900131083</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3243593057258671</v>
+        <v>5.95</v>
       </c>
       <c r="E20" t="n">
         <v>9.241856841925726</v>
@@ -1130,341 +1129,341 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
+          <t>count_completed_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.448803088803088</v>
+        <v>62.83632069043833</v>
       </c>
       <c r="C21" t="n">
-        <v>4.153397014480606</v>
+        <v>59.69718299498484</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3142431629618028</v>
+        <v>5.26</v>
       </c>
       <c r="E21" t="n">
-        <v>0.47813222172906</v>
+        <v>6.263116772058067</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7448989229644511</v>
+        <v>5.996239028568584</v>
       </c>
       <c r="G21" t="n">
-        <v>3.941176470588236</v>
+        <v>57.94117647058823</v>
       </c>
       <c r="H21" t="n">
-        <v>3.233333333333333</v>
+        <v>51.21212121212121</v>
       </c>
       <c r="I21" t="n">
-        <v>5.058823529411764</v>
+        <v>73.14705882352941</v>
       </c>
       <c r="J21" t="n">
-        <v>5.823529411764706</v>
+        <v>71.52631578947368</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_medium_pressure_per_match</t>
+          <t>count_medium_pressures_received_per_match</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.71143311378606</v>
+        <v>96.94037247331364</v>
       </c>
       <c r="C22" t="n">
-        <v>71.46256786036972</v>
+        <v>92.27754320964847</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3101860635750931</v>
+        <v>5.05</v>
       </c>
       <c r="E22" t="n">
-        <v>9.898445423532712</v>
+        <v>9.844342872143265</v>
       </c>
       <c r="F22" t="n">
-        <v>8.172233092592354</v>
+        <v>8.620332165631426</v>
       </c>
       <c r="G22" t="n">
-        <v>59.70588235294117</v>
+        <v>81.76470588235294</v>
       </c>
       <c r="H22" t="n">
-        <v>59.76470588235294</v>
+        <v>79.78787878787878</v>
       </c>
       <c r="I22" t="n">
-        <v>87</v>
+        <v>109.3235294117647</v>
       </c>
       <c r="J22" t="n">
-        <v>90.39473684210526</v>
+        <v>111.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_high_pressure_per_match</t>
+          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>62.83632069043833</v>
+        <v>28.61800279348607</v>
       </c>
       <c r="C23" t="n">
-        <v>59.69718299498484</v>
+        <v>30.04006372055183</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2990081775857051</v>
+        <v>-4.73</v>
       </c>
       <c r="E23" t="n">
-        <v>6.263116772058067</v>
+        <v>1.870780419064279</v>
       </c>
       <c r="F23" t="n">
-        <v>5.996239028568584</v>
+        <v>1.921928811916042</v>
       </c>
       <c r="G23" t="n">
-        <v>57.94117647058823</v>
+        <v>27.26160789700495</v>
       </c>
       <c r="H23" t="n">
-        <v>51.21212121212121</v>
+        <v>27.26802063132945</v>
       </c>
       <c r="I23" t="n">
-        <v>73.14705882352941</v>
+        <v>31.51944226361873</v>
       </c>
       <c r="J23" t="n">
-        <v>71.52631578947368</v>
+        <v>34.62746881359381</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_per_match</t>
+          <t>count_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>96.94037247331364</v>
+        <v>81.08403815580286</v>
       </c>
       <c r="C24" t="n">
-        <v>92.27754320964847</v>
+        <v>77.72575471696214</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2890456138415929</v>
+        <v>4.32</v>
       </c>
       <c r="E24" t="n">
-        <v>9.844342872143265</v>
+        <v>6.714116787919712</v>
       </c>
       <c r="F24" t="n">
-        <v>8.620332165631426</v>
+        <v>6.552272275076396</v>
       </c>
       <c r="G24" t="n">
-        <v>81.76470588235294</v>
+        <v>76.2</v>
       </c>
       <c r="H24" t="n">
-        <v>79.78787878787878</v>
+        <v>67.53333333333333</v>
       </c>
       <c r="I24" t="n">
-        <v>109.3235294117647</v>
+        <v>92.11764705882354</v>
       </c>
       <c r="J24" t="n">
-        <v>111.5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_in_sample</t>
+          <t>count_ball_retentions_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.94037247331364</v>
+        <v>90.07775607540313</v>
       </c>
       <c r="C25" t="n">
-        <v>92.27754320964847</v>
+        <v>87.1490756040911</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2890456138415929</v>
+        <v>3.36</v>
       </c>
       <c r="E25" t="n">
-        <v>9.844342872143265</v>
+        <v>5.949603592510644</v>
       </c>
       <c r="F25" t="n">
-        <v>8.620332165631426</v>
+        <v>7.122167984691953</v>
       </c>
       <c r="G25" t="n">
-        <v>81.76470588235294</v>
+        <v>83.82352941176471</v>
       </c>
       <c r="H25" t="n">
-        <v>79.78787878787878</v>
+        <v>75.78787878787878</v>
       </c>
       <c r="I25" t="n">
-        <v>109.3235294117647</v>
+        <v>99.64705882352941</v>
       </c>
       <c r="J25" t="n">
-        <v>111.5</v>
+        <v>97.02631578947368</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.08403815580286</v>
+        <v>18.1374335680218</v>
       </c>
       <c r="C26" t="n">
-        <v>77.72575471696214</v>
+        <v>17.55054566608747</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2616080951760286</v>
+        <v>3.34</v>
       </c>
       <c r="E26" t="n">
-        <v>6.714116787919712</v>
+        <v>1.978410220356796</v>
       </c>
       <c r="F26" t="n">
-        <v>6.552272275076396</v>
+        <v>1.935279743292363</v>
       </c>
       <c r="G26" t="n">
-        <v>76.2</v>
+        <v>15.77142857142857</v>
       </c>
       <c r="H26" t="n">
-        <v>67.53333333333333</v>
+        <v>12.9</v>
       </c>
       <c r="I26" t="n">
-        <v>92.11764705882354</v>
+        <v>20.35294117647059</v>
       </c>
       <c r="J26" t="n">
-        <v>89</v>
+        <v>20.14285714285714</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
+          <t>count_high_pressures_received_per_match</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8.012514194867135</v>
+        <v>124.2124596865773</v>
       </c>
       <c r="C27" t="n">
-        <v>8.175167305538823</v>
+        <v>120.2459231343442</v>
       </c>
       <c r="D27" t="n">
-        <v>0.258583320647116</v>
+        <v>3.3</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2836688201309853</v>
+        <v>6.737314832112652</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8306341768243247</v>
+        <v>8.574593776644964</v>
       </c>
       <c r="G27" t="n">
-        <v>7.529411764705882</v>
+        <v>118.3142857142857</v>
       </c>
       <c r="H27" t="n">
-        <v>7.058823529411764</v>
+        <v>106.9333333333333</v>
       </c>
       <c r="I27" t="n">
-        <v>8.243243243243244</v>
+        <v>135.6176470588235</v>
       </c>
       <c r="J27" t="n">
-        <v>10.38888888888889</v>
+        <v>134.2058823529412</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>count_high_pressures_received_per_match</t>
+          <t>count_forced_losses_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>124.2124596865773</v>
+        <v>34.1347036111742</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2459231343442</v>
+        <v>33.0968475302531</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2128884132273271</v>
+        <v>3.14</v>
       </c>
       <c r="E28" t="n">
-        <v>6.737314832112652</v>
+        <v>2.345056216845116</v>
       </c>
       <c r="F28" t="n">
-        <v>8.574593776644964</v>
+        <v>3.285744352102927</v>
       </c>
       <c r="G28" t="n">
-        <v>118.3142857142857</v>
+        <v>30.85714285714286</v>
       </c>
       <c r="H28" t="n">
-        <v>106.9333333333333</v>
+        <v>26.46666666666667</v>
       </c>
       <c r="I28" t="n">
-        <v>135.6176470588235</v>
+        <v>36.73529411764706</v>
       </c>
       <c r="J28" t="n">
-        <v>134.2058823529412</v>
+        <v>38.64705882352941</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>count_high_pressures_received_in_sample</t>
+          <t>difficult_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>124.2124596865773</v>
+        <v>9.266539236656801</v>
       </c>
       <c r="C29" t="n">
-        <v>120.2459231343442</v>
+        <v>9.496892491354807</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2128884132273271</v>
+        <v>-2.43</v>
       </c>
       <c r="E29" t="n">
-        <v>6.737314832112652</v>
+        <v>1.58651910876543</v>
       </c>
       <c r="F29" t="n">
-        <v>8.574593776644964</v>
+        <v>1.604495678512621</v>
       </c>
       <c r="G29" t="n">
-        <v>118.3142857142857</v>
+        <v>7.737115825351119</v>
       </c>
       <c r="H29" t="n">
-        <v>106.9333333333333</v>
+        <v>5.903305028305028</v>
       </c>
       <c r="I29" t="n">
-        <v>135.6176470588235</v>
+        <v>11.44068465847878</v>
       </c>
       <c r="J29" t="n">
-        <v>134.2058823529412</v>
+        <v>11.84545426503321</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_high_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>90.07775607540313</v>
+        <v>8.436179877356349</v>
       </c>
       <c r="C30" t="n">
-        <v>87.1490756040911</v>
+        <v>8.238492534189129</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1963389817713732</v>
+        <v>2.4</v>
       </c>
       <c r="E30" t="n">
-        <v>5.949603592510644</v>
+        <v>0.8770934444552588</v>
       </c>
       <c r="F30" t="n">
-        <v>7.122167984691953</v>
+        <v>0.9267698113214611</v>
       </c>
       <c r="G30" t="n">
-        <v>83.82352941176471</v>
+        <v>7.470588235294118</v>
       </c>
       <c r="H30" t="n">
-        <v>75.78787878787878</v>
+        <v>6.2</v>
       </c>
       <c r="I30" t="n">
-        <v>99.64705882352941</v>
+        <v>9.529411764705882</v>
       </c>
       <c r="J30" t="n">
-        <v>97.02631578947368</v>
+        <v>9.685714285714285</v>
       </c>
     </row>
     <row r="31">
@@ -1480,7 +1479,7 @@
         <v>1.568373972863137</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1883804590171579</v>
+        <v>-2.34</v>
       </c>
       <c r="E31" t="n">
         <v>0.3032637683958119</v>
@@ -1504,409 +1503,307 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_high_pressure_per_match</t>
+          <t>count_forced_losses_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34.1347036111742</v>
+        <v>21.22893935952759</v>
       </c>
       <c r="C32" t="n">
-        <v>33.0968475302531</v>
+        <v>20.81497534927876</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1857936073614382</v>
+        <v>1.99</v>
       </c>
       <c r="E32" t="n">
-        <v>2.345056216845116</v>
+        <v>0.8999365644935382</v>
       </c>
       <c r="F32" t="n">
-        <v>3.285744352102927</v>
+        <v>1.903527721944339</v>
       </c>
       <c r="G32" t="n">
-        <v>30.85714285714286</v>
+        <v>20.41176470588235</v>
       </c>
       <c r="H32" t="n">
-        <v>26.46666666666667</v>
+        <v>16.73333333333333</v>
       </c>
       <c r="I32" t="n">
-        <v>36.73529411764706</v>
+        <v>22.32352941176471</v>
       </c>
       <c r="J32" t="n">
-        <v>38.64705882352941</v>
+        <v>24.17647058823529</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_low_pressure</t>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>126.7692082216671</v>
+        <v>8.012514194867135</v>
       </c>
       <c r="C33" t="n">
-        <v>129.6833126511096</v>
+        <v>8.175167305538821</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1834884391581471</v>
+        <v>-1.99</v>
       </c>
       <c r="E33" t="n">
-        <v>25.66435145038744</v>
+        <v>0.2836688201309853</v>
       </c>
       <c r="F33" t="n">
-        <v>22.20374954763213</v>
+        <v>0.8306341768243247</v>
       </c>
       <c r="G33" t="n">
-        <v>103.4311764705882</v>
+        <v>7.529411764705882</v>
       </c>
       <c r="H33" t="n">
-        <v>75.83333333333333</v>
+        <v>7.058823529411764</v>
       </c>
       <c r="I33" t="n">
-        <v>165.6861764705882</v>
+        <v>8.243243243243244</v>
       </c>
       <c r="J33" t="n">
-        <v>160.0878947368421</v>
+        <v>10.38888888888889</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
+          <t>pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.1374335680218</v>
+        <v>70.81350239843017</v>
       </c>
       <c r="C34" t="n">
-        <v>17.55054566608747</v>
+        <v>69.48591413348657</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1781268105031929</v>
+        <v>1.91</v>
       </c>
       <c r="E34" t="n">
-        <v>1.978410220356796</v>
+        <v>1.815725196628921</v>
       </c>
       <c r="F34" t="n">
-        <v>1.935279743292363</v>
+        <v>2.939829392007584</v>
       </c>
       <c r="G34" t="n">
-        <v>15.77142857142857</v>
+        <v>69.38534400837257</v>
       </c>
       <c r="H34" t="n">
-        <v>12.9</v>
+        <v>62.99198144257703</v>
       </c>
       <c r="I34" t="n">
-        <v>20.35294117647059</v>
+        <v>73.51929417886036</v>
       </c>
       <c r="J34" t="n">
-        <v>20.14285714285714</v>
+        <v>72.95941844997108</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_high_pressure</t>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>968.3066863956394</v>
+        <v>3.165932318873495</v>
       </c>
       <c r="C35" t="n">
-        <v>941.4259326190731</v>
+        <v>3.119518297598793</v>
       </c>
       <c r="D35" t="n">
-        <v>0.177017043800183</v>
+        <v>1.49</v>
       </c>
       <c r="E35" t="n">
-        <v>58.40688227116633</v>
+        <v>0.3135114683929804</v>
       </c>
       <c r="F35" t="n">
-        <v>46.90636367693293</v>
+        <v>0.4549432044393014</v>
       </c>
       <c r="G35" t="n">
-        <v>918.1673529411764</v>
+        <v>2.705882352941177</v>
       </c>
       <c r="H35" t="n">
-        <v>853.5494117647058</v>
+        <v>2.1</v>
       </c>
       <c r="I35" t="n">
-        <v>1057.468529411765</v>
+        <v>3.588235294117647</v>
       </c>
       <c r="J35" t="n">
-        <v>994.4837837837838</v>
+        <v>3.882352941176471</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8.436179877356349</v>
+        <v>16.59984101748808</v>
       </c>
       <c r="C36" t="n">
-        <v>8.238492534189129</v>
+        <v>16.39540047586487</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08610991073627602</v>
+        <v>1.25</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8770934444552588</v>
+        <v>0.6327051077895033</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9267698113214611</v>
+        <v>1.536861269892184</v>
       </c>
       <c r="G36" t="n">
-        <v>7.470588235294118</v>
+        <v>15.91176470588235</v>
       </c>
       <c r="H36" t="n">
-        <v>6.2</v>
+        <v>13.96666666666667</v>
       </c>
       <c r="I36" t="n">
-        <v>9.529411764705882</v>
+        <v>17.32352941176471</v>
       </c>
       <c r="J36" t="n">
-        <v>9.685714285714285</v>
+        <v>20.13888888888889</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_medium_pressure_per_match</t>
+          <t>pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.22893935952759</v>
+        <v>70.27352246452622</v>
       </c>
       <c r="C37" t="n">
-        <v>20.81497534927876</v>
+        <v>69.79589904264789</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06558962617155374</v>
+        <v>0.68</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8999365644935382</v>
+        <v>1.710135819709645</v>
       </c>
       <c r="F37" t="n">
-        <v>1.903527721944339</v>
+        <v>3.137909798980143</v>
       </c>
       <c r="G37" t="n">
-        <v>20.41176470588235</v>
+        <v>67.45644774343303</v>
       </c>
       <c r="H37" t="n">
-        <v>16.73333333333333</v>
+        <v>62.81668996444732</v>
       </c>
       <c r="I37" t="n">
-        <v>22.32352941176471</v>
+        <v>71.78426270913771</v>
       </c>
       <c r="J37" t="n">
-        <v>24.17647058823529</v>
+        <v>74.899191988567</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_high_pressure</t>
+          <t>ball_retention_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>938.0073896434249</v>
+        <v>70.24776213149538</v>
       </c>
       <c r="C38" t="n">
-        <v>923.1639964177641</v>
+        <v>69.79430690428634</v>
       </c>
       <c r="D38" t="n">
-        <v>0.05368614393758302</v>
+        <v>0.65</v>
       </c>
       <c r="E38" t="n">
-        <v>51.30326030380571</v>
+        <v>1.304461667563658</v>
       </c>
       <c r="F38" t="n">
-        <v>38.63816455181916</v>
+        <v>2.742128694822545</v>
       </c>
       <c r="G38" t="n">
-        <v>877.3561764705883</v>
+        <v>68.31638472312001</v>
       </c>
       <c r="H38" t="n">
-        <v>833.2436666666667</v>
+        <v>63.61302184335273</v>
       </c>
       <c r="I38" t="n">
-        <v>1006.097352941176</v>
+        <v>71.92247854172854</v>
       </c>
       <c r="J38" t="n">
-        <v>982.6673684210526</v>
+        <v>74.02142685092684</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_medium_pressure</t>
+          <t>ball_retention_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>960.1752529184647</v>
+        <v>68.60793091085996</v>
       </c>
       <c r="C39" t="n">
-        <v>944.3385007962769</v>
+        <v>68.16920923240119</v>
       </c>
       <c r="D39" t="n">
-        <v>0.05125726256341303</v>
+        <v>0.64</v>
       </c>
       <c r="E39" t="n">
-        <v>42.31034781315856</v>
+        <v>1.710268366112773</v>
       </c>
       <c r="F39" t="n">
-        <v>51.04090122221977</v>
+        <v>2.19953577558586</v>
       </c>
       <c r="G39" t="n">
-        <v>904.9217647058823</v>
+        <v>66.19089027639028</v>
       </c>
       <c r="H39" t="n">
-        <v>823.9516666666666</v>
+        <v>63.28553288623142</v>
       </c>
       <c r="I39" t="n">
-        <v>1012.664117647059</v>
+        <v>70.39945944708445</v>
       </c>
       <c r="J39" t="n">
-        <v>1007.309736842105</v>
+        <v>72.23084847170374</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_medium_pressure</t>
+          <t>difficult_pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>959.9945252327958</v>
+        <v>30.3311730841193</v>
       </c>
       <c r="C40" t="n">
-        <v>945.0143108041096</v>
+        <v>30.16019528646619</v>
       </c>
       <c r="D40" t="n">
-        <v>0.03804855967959743</v>
+        <v>0.57</v>
       </c>
       <c r="E40" t="n">
-        <v>43.79078225685212</v>
+        <v>2.239882472101038</v>
       </c>
       <c r="F40" t="n">
-        <v>56.75570249901521</v>
+        <v>1.844194089765359</v>
       </c>
       <c r="G40" t="n">
-        <v>892.7285294117647</v>
+        <v>28.3553830455259</v>
       </c>
       <c r="H40" t="n">
-        <v>809.329</v>
+        <v>26.79649184611685</v>
       </c>
       <c r="I40" t="n">
-        <v>1006.850588235294</v>
+        <v>33.61770902626785</v>
       </c>
       <c r="J40" t="n">
-        <v>1013.453421052632</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>3.165932318873495</v>
-      </c>
-      <c r="C41" t="n">
-        <v>3.119518297598793</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.02067454320393772</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.3135114683929804</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.4549432044393014</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2.705882352941177</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.588235294117647</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.882352941176471</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>16.59984101748808</v>
-      </c>
-      <c r="C42" t="n">
-        <v>16.39540047586487</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.005266956470221676</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.6327051077895033</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.536861269892184</v>
-      </c>
-      <c r="G42" t="n">
-        <v>15.91176470588235</v>
-      </c>
-      <c r="H42" t="n">
-        <v>13.96666666666667</v>
-      </c>
-      <c r="I42" t="n">
-        <v>17.32352941176471</v>
-      </c>
-      <c r="J42" t="n">
-        <v>20.13888888888889</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>difficult_pass_completion_ratio_under_high_pressure</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>414.3800784465137</v>
-      </c>
-      <c r="C43" t="n">
-        <v>409.2681159078422</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.00383868476451712</v>
-      </c>
-      <c r="E43" t="n">
-        <v>31.0170431250632</v>
-      </c>
-      <c r="F43" t="n">
-        <v>31.68787129700418</v>
-      </c>
-      <c r="G43" t="n">
-        <v>387.9182857142857</v>
-      </c>
-      <c r="H43" t="n">
-        <v>351.9446666666666</v>
-      </c>
-      <c r="I43" t="n">
-        <v>455.1320588235294</v>
-      </c>
-      <c r="J43" t="n">
-        <v>463.1771428571429</v>
+        <v>33.92207053898483</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_pressure.xlsx
+++ b/Tableau métriques/moyenne/2022_2023/Skill Corner/moyenne_pressure.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44420622302976</v>
+        <v>15.57893195797161</v>
       </c>
       <c r="C2" t="n">
-        <v>13.90602696299291</v>
+        <v>13.32849064887864</v>
       </c>
       <c r="D2" t="n">
-        <v>18.25</v>
+        <v>16.88</v>
       </c>
       <c r="E2" t="n">
-        <v>3.286855172873676</v>
+        <v>3.03147074018614</v>
       </c>
       <c r="F2" t="n">
-        <v>2.518183137823391</v>
+        <v>2.284574169138367</v>
       </c>
       <c r="G2" t="n">
-        <v>11.61764705882353</v>
+        <v>11.0709263244315</v>
       </c>
       <c r="H2" t="n">
-        <v>10.1</v>
+        <v>10.30387657782656</v>
       </c>
       <c r="I2" t="n">
-        <v>20.64705882352941</v>
+        <v>19.37811348945965</v>
       </c>
       <c r="J2" t="n">
-        <v>19.05555555555556</v>
+        <v>18.16920879227334</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.99789234612764</v>
+        <v>13.26679029523509</v>
       </c>
       <c r="C3" t="n">
-        <v>11.90863553714947</v>
+        <v>11.40864607672706</v>
       </c>
       <c r="D3" t="n">
-        <v>17.54</v>
+        <v>16.29</v>
       </c>
       <c r="E3" t="n">
-        <v>3.074838972670156</v>
+        <v>2.84609535104801</v>
       </c>
       <c r="F3" t="n">
-        <v>2.299451300683096</v>
+        <v>2.095957311118259</v>
       </c>
       <c r="G3" t="n">
-        <v>9.470588235294118</v>
+        <v>9.030136918784471</v>
       </c>
       <c r="H3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.833051391785894</v>
       </c>
       <c r="I3" t="n">
-        <v>17.94117647058824</v>
+        <v>16.8464037929815</v>
       </c>
       <c r="J3" t="n">
-        <v>16.75</v>
+        <v>15.96501413927995</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.66127186009539</v>
+        <v>19.58648846916122</v>
       </c>
       <c r="C4" t="n">
-        <v>17.84351047199344</v>
+        <v>17.10340714559398</v>
       </c>
       <c r="D4" t="n">
-        <v>15.79</v>
+        <v>14.52</v>
       </c>
       <c r="E4" t="n">
-        <v>2.980514754574089</v>
+        <v>2.714631752019953</v>
       </c>
       <c r="F4" t="n">
-        <v>2.896110231719037</v>
+        <v>2.599849710609341</v>
       </c>
       <c r="G4" t="n">
-        <v>16.55882352941176</v>
+        <v>15.76910579061132</v>
       </c>
       <c r="H4" t="n">
-        <v>12.53333333333333</v>
+        <v>12.82383617852208</v>
       </c>
       <c r="I4" t="n">
-        <v>24.79411764705882</v>
+        <v>23.27491724299527</v>
       </c>
       <c r="J4" t="n">
-        <v>23.80555555555556</v>
+        <v>22.6997708216553</v>
       </c>
     </row>
     <row r="5">
@@ -589,31 +589,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.18240290710879</v>
+        <v>16.29768755581978</v>
       </c>
       <c r="C5" t="n">
-        <v>14.95678970675875</v>
+        <v>14.33096792174175</v>
       </c>
       <c r="D5" t="n">
-        <v>14.88</v>
+        <v>13.72</v>
       </c>
       <c r="E5" t="n">
-        <v>2.926538285548403</v>
+        <v>2.687406357533667</v>
       </c>
       <c r="F5" t="n">
-        <v>2.609126962188077</v>
+        <v>2.360031313591555</v>
       </c>
       <c r="G5" t="n">
-        <v>13.08823529411765</v>
+        <v>12.47091012373386</v>
       </c>
       <c r="H5" t="n">
-        <v>10.63333333333333</v>
+        <v>10.81165771892632</v>
       </c>
       <c r="I5" t="n">
-        <v>21.14705882352941</v>
+        <v>19.8622924728839</v>
       </c>
       <c r="J5" t="n">
-        <v>20.66666666666667</v>
+        <v>19.70026133823401</v>
       </c>
     </row>
     <row r="6">
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.725087440381557</v>
+        <v>6.373011028216816</v>
       </c>
       <c r="C6" t="n">
-        <v>5.975588935805654</v>
+        <v>5.739298815154657</v>
       </c>
       <c r="D6" t="n">
-        <v>12.54</v>
+        <v>11.04</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8965547481966518</v>
+        <v>0.85878033158883</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9928622511240921</v>
+        <v>0.9001153277896506</v>
       </c>
       <c r="G6" t="n">
-        <v>6.088235294117647</v>
+        <v>5.790565687707545</v>
       </c>
       <c r="H6" t="n">
-        <v>4.166666666666667</v>
+        <v>4.259064489910421</v>
       </c>
       <c r="I6" t="n">
-        <v>8.294117647058824</v>
+        <v>7.866953742248564</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>7.601806851232762</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.97840563252328</v>
+        <v>1.873341718418323</v>
       </c>
       <c r="C7" t="n">
-        <v>1.769492970112165</v>
+        <v>1.697504142173806</v>
       </c>
       <c r="D7" t="n">
-        <v>11.81</v>
+        <v>10.36</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1711182552586951</v>
+        <v>0.1612638189510597</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2820509854470478</v>
+        <v>0.2596539097100381</v>
       </c>
       <c r="G7" t="n">
-        <v>1.764705882352941</v>
+        <v>1.665692680449914</v>
       </c>
       <c r="H7" t="n">
-        <v>1.366666666666667</v>
+        <v>1.320589581494891</v>
       </c>
       <c r="I7" t="n">
-        <v>2.205882352941177</v>
+        <v>2.071245343384731</v>
       </c>
       <c r="J7" t="n">
-        <v>2.378378378378379</v>
+        <v>2.253722774321588</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.324796729502612</v>
+        <v>3.15860321248906</v>
       </c>
       <c r="C8" t="n">
-        <v>2.996586054109274</v>
+        <v>2.880916242049621</v>
       </c>
       <c r="D8" t="n">
-        <v>10.95</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8655756083881965</v>
+        <v>0.8221993584825283</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6289852228161323</v>
+        <v>0.5627651255239225</v>
       </c>
       <c r="G8" t="n">
-        <v>2.756756756756757</v>
+        <v>2.592815824202912</v>
       </c>
       <c r="H8" t="n">
-        <v>1.818181818181818</v>
+        <v>1.770800798901676</v>
       </c>
       <c r="I8" t="n">
-        <v>4.764705882352941</v>
+        <v>4.518433010305863</v>
       </c>
       <c r="J8" t="n">
-        <v>3.921052631578947</v>
+        <v>3.740438269464866</v>
       </c>
     </row>
     <row r="9">
@@ -725,133 +725,133 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51.53878078855337</v>
+        <v>49.49955175283417</v>
       </c>
       <c r="C9" t="n">
-        <v>47.29567759759507</v>
+        <v>46.10702309423105</v>
       </c>
       <c r="D9" t="n">
-        <v>8.970000000000001</v>
+        <v>7.36</v>
       </c>
       <c r="E9" t="n">
-        <v>4.67006289449726</v>
+        <v>4.600843825578137</v>
       </c>
       <c r="F9" t="n">
-        <v>4.705476750956717</v>
+        <v>4.008708384419597</v>
       </c>
       <c r="G9" t="n">
-        <v>44.14106987130517</v>
+        <v>42.12272680281485</v>
       </c>
       <c r="H9" t="n">
-        <v>38.65971590174531</v>
+        <v>39.02802526527248</v>
       </c>
       <c r="I9" t="n">
-        <v>56.7116636219173</v>
+        <v>53.20889909986828</v>
       </c>
       <c r="J9" t="n">
-        <v>55.14459094959095</v>
+        <v>53.60833054603297</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.015580286168521</v>
+        <v>16.08604011212655</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9326157036373756</v>
+        <v>15.03665972802341</v>
       </c>
       <c r="D10" t="n">
-        <v>8.9</v>
+        <v>6.98</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2489768417434201</v>
+        <v>3.201171436064249</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1650791897981773</v>
+        <v>2.250497340920094</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7837837837837838</v>
+        <v>12.97448523173522</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7105263157894737</v>
+        <v>10.56957509659715</v>
       </c>
       <c r="I10" t="n">
-        <v>1.382352941176471</v>
+        <v>21.00672031196522</v>
       </c>
       <c r="J10" t="n">
-        <v>1.297297297297297</v>
+        <v>18.61217185673556</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.6820540806678</v>
+        <v>0.9609187027896855</v>
       </c>
       <c r="C11" t="n">
-        <v>15.40014366225407</v>
+        <v>0.901422072927281</v>
       </c>
       <c r="D11" t="n">
-        <v>8.32</v>
+        <v>6.6</v>
       </c>
       <c r="E11" t="n">
-        <v>3.412813401062691</v>
+        <v>0.2367862344163004</v>
       </c>
       <c r="F11" t="n">
-        <v>2.576850835240277</v>
+        <v>0.1525901794479344</v>
       </c>
       <c r="G11" t="n">
-        <v>13.81336425951499</v>
+        <v>0.7313454809930368</v>
       </c>
       <c r="H11" t="n">
-        <v>10.67449132685496</v>
+        <v>0.6734456725473976</v>
       </c>
       <c r="I11" t="n">
-        <v>22.11362828348123</v>
+        <v>1.30058368546047</v>
       </c>
       <c r="J11" t="n">
-        <v>19.47783986189249</v>
+        <v>1.224659350590587</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
+          <t>count_forced_losses_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.644031405344347</v>
+        <v>4.007556511189613</v>
       </c>
       <c r="C12" t="n">
-        <v>6.160046884120097</v>
+        <v>3.774916496715337</v>
       </c>
       <c r="D12" t="n">
-        <v>7.86</v>
+        <v>6.16</v>
       </c>
       <c r="E12" t="n">
-        <v>1.394073495150542</v>
+        <v>0.4549546992467952</v>
       </c>
       <c r="F12" t="n">
-        <v>1.016059191648198</v>
+        <v>0.5703837084390559</v>
       </c>
       <c r="G12" t="n">
-        <v>5.19673953497483</v>
+        <v>3.571310515787982</v>
       </c>
       <c r="H12" t="n">
-        <v>4.722733406943934</v>
+        <v>2.51995960069552</v>
       </c>
       <c r="I12" t="n">
-        <v>8.498707175177763</v>
+        <v>4.698179466179818</v>
       </c>
       <c r="J12" t="n">
-        <v>7.645777645777646</v>
+        <v>4.530562029381954</v>
       </c>
     </row>
     <row r="13">
@@ -861,31 +861,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.684456052691347</v>
+        <v>8.200243546307693</v>
       </c>
       <c r="C13" t="n">
-        <v>8.059098668448513</v>
+        <v>7.732909696259091</v>
       </c>
       <c r="D13" t="n">
-        <v>7.76</v>
+        <v>6.04</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7095790980671949</v>
+        <v>0.70276026153433</v>
       </c>
       <c r="F13" t="n">
-        <v>1.306325028648559</v>
+        <v>1.170296210557265</v>
       </c>
       <c r="G13" t="n">
-        <v>7.764705882352941</v>
+        <v>7.261019965689508</v>
       </c>
       <c r="H13" t="n">
-        <v>5.566666666666666</v>
+        <v>5.805588614730855</v>
       </c>
       <c r="I13" t="n">
-        <v>9.617647058823529</v>
+        <v>9.135373454959115</v>
       </c>
       <c r="J13" t="n">
-        <v>10.79411764705882</v>
+        <v>10.2944941937462</v>
       </c>
     </row>
     <row r="14">
@@ -895,31 +895,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.57211644904633</v>
+        <v>45.73088532487562</v>
       </c>
       <c r="C14" t="n">
-        <v>44.27820506078008</v>
+        <v>43.17147613817603</v>
       </c>
       <c r="D14" t="n">
-        <v>7.44</v>
+        <v>5.93</v>
       </c>
       <c r="E14" t="n">
-        <v>5.510077850652313</v>
+        <v>5.452293258775662</v>
       </c>
       <c r="F14" t="n">
-        <v>5.145809181605581</v>
+        <v>4.440912272125193</v>
       </c>
       <c r="G14" t="n">
-        <v>38.48783753991107</v>
+        <v>36.69606758450261</v>
       </c>
       <c r="H14" t="n">
-        <v>35.90740390002155</v>
+        <v>36.19713630984626</v>
       </c>
       <c r="I14" t="n">
-        <v>53.10906888209829</v>
+        <v>49.80798205973077</v>
       </c>
       <c r="J14" t="n">
-        <v>52.44234675412307</v>
+        <v>50.55436859484064</v>
       </c>
     </row>
     <row r="15">
@@ -929,65 +929,65 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.448803088803088</v>
+        <v>4.206364733041904</v>
       </c>
       <c r="C15" t="n">
-        <v>4.153397014480606</v>
+        <v>3.987713324156904</v>
       </c>
       <c r="D15" t="n">
-        <v>7.11</v>
+        <v>5.48</v>
       </c>
       <c r="E15" t="n">
-        <v>0.47813222172906</v>
+        <v>0.4700443957591353</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7448989229644511</v>
+        <v>0.6664777841057521</v>
       </c>
       <c r="G15" t="n">
-        <v>3.941176470588236</v>
+        <v>3.686077918515553</v>
       </c>
       <c r="H15" t="n">
-        <v>3.233333333333333</v>
+        <v>3.188608761496579</v>
       </c>
       <c r="I15" t="n">
-        <v>5.058823529411764</v>
+        <v>4.835702171639487</v>
       </c>
       <c r="J15" t="n">
-        <v>5.823529411764706</v>
+        <v>5.529820850995169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_low_pressure_per_match</t>
+          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.217065637065637</v>
+        <v>27.84343927553475</v>
       </c>
       <c r="C16" t="n">
-        <v>3.937483509000537</v>
+        <v>29.41445596678595</v>
       </c>
       <c r="D16" t="n">
-        <v>7.1</v>
+        <v>-5.34</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4821714414731396</v>
+        <v>2.63404705031283</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6259577701744767</v>
+        <v>2.57167903084503</v>
       </c>
       <c r="G16" t="n">
-        <v>3.756756756756757</v>
+        <v>25.55192229154174</v>
       </c>
       <c r="H16" t="n">
-        <v>2.433333333333333</v>
+        <v>27.00485365033244</v>
       </c>
       <c r="I16" t="n">
-        <v>4.941176470588236</v>
+        <v>30.95724513744638</v>
       </c>
       <c r="J16" t="n">
-        <v>4.75</v>
+        <v>35.4033762461597</v>
       </c>
     </row>
     <row r="17">
@@ -997,65 +997,65 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.70206223029751</v>
+        <v>61.44855710706</v>
       </c>
       <c r="C17" t="n">
-        <v>60.59336822850755</v>
+        <v>58.3989538125645</v>
       </c>
       <c r="D17" t="n">
-        <v>6.78</v>
+        <v>5.22</v>
       </c>
       <c r="E17" t="n">
-        <v>9.437716896341296</v>
+        <v>8.618487716131149</v>
       </c>
       <c r="F17" t="n">
-        <v>7.622860542550139</v>
+        <v>6.811233453938179</v>
       </c>
       <c r="G17" t="n">
-        <v>49.70588235294117</v>
+        <v>47.39315316917637</v>
       </c>
       <c r="H17" t="n">
-        <v>49.58823529411764</v>
+        <v>48.87930462878744</v>
       </c>
       <c r="I17" t="n">
-        <v>75.94117647058823</v>
+        <v>71.06316232257117</v>
       </c>
       <c r="J17" t="n">
-        <v>79.21052631578948</v>
+        <v>75.29680392360449</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
+          <t>count_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.21586431144839</v>
+        <v>76.40351544995981</v>
       </c>
       <c r="C18" t="n">
-        <v>19.0728455396376</v>
+        <v>73.19565687624473</v>
       </c>
       <c r="D18" t="n">
-        <v>5.99</v>
+        <v>4.38</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9720461937484423</v>
+        <v>8.310788531599425</v>
       </c>
       <c r="F18" t="n">
-        <v>1.892755089838451</v>
+        <v>6.899493890599562</v>
       </c>
       <c r="G18" t="n">
-        <v>19.52797219334719</v>
+        <v>63.33135139836113</v>
       </c>
       <c r="H18" t="n">
-        <v>15.75512140240712</v>
+        <v>62.80920872603785</v>
       </c>
       <c r="I18" t="n">
-        <v>21.82693802276155</v>
+        <v>86.43441382391984</v>
       </c>
       <c r="J18" t="n">
-        <v>22.72013149595503</v>
+        <v>90.39360183484477</v>
       </c>
     </row>
     <row r="19">
@@ -1065,65 +1065,65 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.71143311378606</v>
+        <v>71.86519903015774</v>
       </c>
       <c r="C19" t="n">
-        <v>71.46256786036972</v>
+        <v>68.86519958746355</v>
       </c>
       <c r="D19" t="n">
-        <v>5.95</v>
+        <v>4.36</v>
       </c>
       <c r="E19" t="n">
-        <v>9.898445423532712</v>
+        <v>9.020386757162111</v>
       </c>
       <c r="F19" t="n">
-        <v>8.172233092592354</v>
+        <v>7.302380083452603</v>
       </c>
       <c r="G19" t="n">
-        <v>59.70588235294117</v>
+        <v>56.90435985426416</v>
       </c>
       <c r="H19" t="n">
-        <v>59.76470588235294</v>
+        <v>58.83999901285285</v>
       </c>
       <c r="I19" t="n">
-        <v>87</v>
+        <v>81.39846689023015</v>
       </c>
       <c r="J19" t="n">
-        <v>90.39473684210526</v>
+        <v>86.01084047212149</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_medium_pressures_received_per_match</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>80.46615943674767</v>
+        <v>91.98330822931014</v>
       </c>
       <c r="C20" t="n">
-        <v>75.94963900131083</v>
+        <v>88.88272193246979</v>
       </c>
       <c r="D20" t="n">
-        <v>5.95</v>
+        <v>3.49</v>
       </c>
       <c r="E20" t="n">
-        <v>9.241856841925726</v>
+        <v>8.807578515860762</v>
       </c>
       <c r="F20" t="n">
-        <v>7.953845106899306</v>
+        <v>7.420429236505766</v>
       </c>
       <c r="G20" t="n">
-        <v>66.44117647058823</v>
+        <v>77.90142016074405</v>
       </c>
       <c r="H20" t="n">
-        <v>65.18181818181819</v>
+        <v>77.39288774787707</v>
       </c>
       <c r="I20" t="n">
-        <v>92.38235294117646</v>
+        <v>102.2756645356831</v>
       </c>
       <c r="J20" t="n">
-        <v>95.05263157894737</v>
+        <v>106.1424213557585</v>
       </c>
     </row>
     <row r="21">
@@ -1133,99 +1133,99 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>62.83632069043833</v>
+        <v>59.43767060762536</v>
       </c>
       <c r="C21" t="n">
-        <v>59.69718299498484</v>
+        <v>57.456057502223</v>
       </c>
       <c r="D21" t="n">
-        <v>5.26</v>
+        <v>3.45</v>
       </c>
       <c r="E21" t="n">
-        <v>6.263116772058067</v>
+        <v>5.421548081900837</v>
       </c>
       <c r="F21" t="n">
-        <v>5.996239028568584</v>
+        <v>5.36924136029037</v>
       </c>
       <c r="G21" t="n">
-        <v>57.94117647058823</v>
+        <v>55.15555444563674</v>
       </c>
       <c r="H21" t="n">
-        <v>51.21212121212121</v>
+        <v>49.52870722955191</v>
       </c>
       <c r="I21" t="n">
-        <v>73.14705882352941</v>
+        <v>68.38980946626803</v>
       </c>
       <c r="J21" t="n">
-        <v>71.52631578947368</v>
+        <v>67.89295746332333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.94037247331364</v>
+        <v>19.19618060094641</v>
       </c>
       <c r="C22" t="n">
-        <v>92.27754320964847</v>
+        <v>18.56048586333947</v>
       </c>
       <c r="D22" t="n">
-        <v>5.05</v>
+        <v>3.42</v>
       </c>
       <c r="E22" t="n">
-        <v>9.844342872143265</v>
+        <v>1.1366072951711</v>
       </c>
       <c r="F22" t="n">
-        <v>8.620332165631426</v>
+        <v>1.832208691675772</v>
       </c>
       <c r="G22" t="n">
-        <v>81.76470588235294</v>
+        <v>18.27335084038939</v>
       </c>
       <c r="H22" t="n">
-        <v>79.78787878787878</v>
+        <v>14.85787230187566</v>
       </c>
       <c r="I22" t="n">
-        <v>109.3235294117647</v>
+        <v>20.97985359133439</v>
       </c>
       <c r="J22" t="n">
-        <v>111.5</v>
+        <v>21.74102804164049</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
+          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>28.61800279348607</v>
+        <v>6.289414275454323</v>
       </c>
       <c r="C23" t="n">
-        <v>30.04006372055183</v>
+        <v>6.102494302667355</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.73</v>
+        <v>3.06</v>
       </c>
       <c r="E23" t="n">
-        <v>1.870780419064279</v>
+        <v>1.336168853509214</v>
       </c>
       <c r="F23" t="n">
-        <v>1.921928811916042</v>
+        <v>1.235763357425931</v>
       </c>
       <c r="G23" t="n">
-        <v>27.26160789700495</v>
+        <v>4.899825388183385</v>
       </c>
       <c r="H23" t="n">
-        <v>27.26802063132945</v>
+        <v>4.486489092585835</v>
       </c>
       <c r="I23" t="n">
-        <v>31.51944226361873</v>
+        <v>7.998628838554469</v>
       </c>
       <c r="J23" t="n">
-        <v>34.62746881359381</v>
+        <v>8.62803602711125</v>
       </c>
     </row>
     <row r="24">
@@ -1235,575 +1235,575 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>81.08403815580286</v>
+        <v>76.6818443840906</v>
       </c>
       <c r="C24" t="n">
-        <v>77.72575471696214</v>
+        <v>74.77471050276974</v>
       </c>
       <c r="D24" t="n">
-        <v>4.32</v>
+        <v>2.55</v>
       </c>
       <c r="E24" t="n">
-        <v>6.714116787919712</v>
+        <v>5.711676155720379</v>
       </c>
       <c r="F24" t="n">
-        <v>6.552272275076396</v>
+        <v>5.580762498573949</v>
       </c>
       <c r="G24" t="n">
-        <v>76.2</v>
+        <v>72.61601666353434</v>
       </c>
       <c r="H24" t="n">
-        <v>67.53333333333333</v>
+        <v>66.82763085396923</v>
       </c>
       <c r="I24" t="n">
-        <v>92.11764705882354</v>
+        <v>86.10240574027532</v>
       </c>
       <c r="J24" t="n">
-        <v>89</v>
+        <v>84.49815905854061</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_high_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.07775607540313</v>
+        <v>7.659676255048169</v>
       </c>
       <c r="C25" t="n">
-        <v>87.1490756040911</v>
+        <v>7.855978866600681</v>
       </c>
       <c r="D25" t="n">
-        <v>3.36</v>
+        <v>-2.5</v>
       </c>
       <c r="E25" t="n">
-        <v>5.949603592510644</v>
+        <v>0.3552162575871802</v>
       </c>
       <c r="F25" t="n">
-        <v>7.122167984691953</v>
+        <v>0.7563142189192547</v>
       </c>
       <c r="G25" t="n">
-        <v>83.82352941176471</v>
+        <v>7.183110580856982</v>
       </c>
       <c r="H25" t="n">
-        <v>75.78787878787878</v>
+        <v>6.786314895637689</v>
       </c>
       <c r="I25" t="n">
-        <v>99.64705882352941</v>
+        <v>8.119275033781424</v>
       </c>
       <c r="J25" t="n">
-        <v>97.02631578947368</v>
+        <v>10.04971318632936</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>18.1374335680218</v>
+        <v>1.461505756308612</v>
       </c>
       <c r="C26" t="n">
-        <v>17.55054566608747</v>
+        <v>1.497619421302244</v>
       </c>
       <c r="D26" t="n">
-        <v>3.34</v>
+        <v>-2.41</v>
       </c>
       <c r="E26" t="n">
-        <v>1.978410220356796</v>
+        <v>0.2840610423958587</v>
       </c>
       <c r="F26" t="n">
-        <v>1.935279743292363</v>
+        <v>0.2473010217369913</v>
       </c>
       <c r="G26" t="n">
-        <v>15.77142857142857</v>
+        <v>1.148121825000276</v>
       </c>
       <c r="H26" t="n">
-        <v>12.9</v>
+        <v>0.900576901709645</v>
       </c>
       <c r="I26" t="n">
-        <v>20.35294117647059</v>
+        <v>1.791656596778017</v>
       </c>
       <c r="J26" t="n">
-        <v>20.14285714285714</v>
+        <v>1.857412815653377</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>count_high_pressures_received_per_match</t>
+          <t>ball_retention_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>124.2124596865773</v>
+        <v>67.63476964485952</v>
       </c>
       <c r="C27" t="n">
-        <v>120.2459231343442</v>
+        <v>69.0482171369524</v>
       </c>
       <c r="D27" t="n">
-        <v>3.3</v>
+        <v>-2.05</v>
       </c>
       <c r="E27" t="n">
-        <v>6.737314832112652</v>
+        <v>2.71168261353126</v>
       </c>
       <c r="F27" t="n">
-        <v>8.574593776644964</v>
+        <v>5.841601565803325</v>
       </c>
       <c r="G27" t="n">
-        <v>118.3142857142857</v>
+        <v>65.23111199384699</v>
       </c>
       <c r="H27" t="n">
-        <v>106.9333333333333</v>
+        <v>63.5514779195827</v>
       </c>
       <c r="I27" t="n">
-        <v>135.6176470588235</v>
+        <v>72.13477933062192</v>
       </c>
       <c r="J27" t="n">
-        <v>134.2058823529412</v>
+        <v>88.09633623854005</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_high_pressure_per_match</t>
+          <t>ball_retention_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.1347036111742</v>
+        <v>66.06582947593299</v>
       </c>
       <c r="C28" t="n">
-        <v>33.0968475302531</v>
+        <v>67.29667519656961</v>
       </c>
       <c r="D28" t="n">
-        <v>3.14</v>
+        <v>-1.83</v>
       </c>
       <c r="E28" t="n">
-        <v>2.345056216845116</v>
+        <v>2.811434433557789</v>
       </c>
       <c r="F28" t="n">
-        <v>3.285744352102927</v>
+        <v>5.676647583162571</v>
       </c>
       <c r="G28" t="n">
-        <v>30.85714285714286</v>
+        <v>63.14870333360837</v>
       </c>
       <c r="H28" t="n">
-        <v>26.46666666666667</v>
+        <v>62.55136060799985</v>
       </c>
       <c r="I28" t="n">
-        <v>36.73529411764706</v>
+        <v>70.64961639133286</v>
       </c>
       <c r="J28" t="n">
-        <v>38.64705882352941</v>
+        <v>86.09484505433622</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_low_pressure</t>
+          <t>pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.266539236656801</v>
+        <v>67.66736373022863</v>
       </c>
       <c r="C29" t="n">
-        <v>9.496892491354807</v>
+        <v>68.9044087963952</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.43</v>
+        <v>-1.8</v>
       </c>
       <c r="E29" t="n">
-        <v>1.58651910876543</v>
+        <v>2.925586725297233</v>
       </c>
       <c r="F29" t="n">
-        <v>1.604495678512621</v>
+        <v>5.556919126102559</v>
       </c>
       <c r="G29" t="n">
-        <v>7.737115825351119</v>
+        <v>64.38902207808518</v>
       </c>
       <c r="H29" t="n">
-        <v>5.903305028305028</v>
+        <v>62.40707135024284</v>
       </c>
       <c r="I29" t="n">
-        <v>11.44068465847878</v>
+        <v>71.90588202498414</v>
       </c>
       <c r="J29" t="n">
-        <v>11.84545426503321</v>
+        <v>86.12033288399269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
+          <t>count_ball_retentions_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.436179877356349</v>
+        <v>85.2718933290428</v>
       </c>
       <c r="C30" t="n">
-        <v>8.238492534189129</v>
+        <v>83.78009593268303</v>
       </c>
       <c r="D30" t="n">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8770934444552588</v>
+        <v>4.966352211866593</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9267698113214611</v>
+        <v>6.351611047319945</v>
       </c>
       <c r="G30" t="n">
-        <v>7.470588235294118</v>
+        <v>79.81651346772686</v>
       </c>
       <c r="H30" t="n">
-        <v>6.2</v>
+        <v>73.28637246908238</v>
       </c>
       <c r="I30" t="n">
-        <v>9.529411764705882</v>
+        <v>93.18325158674419</v>
       </c>
       <c r="J30" t="n">
-        <v>9.685714285714285</v>
+        <v>92.1323767243571</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
+          <t>count_high_pressures_received_per_match</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.531746536452419</v>
+        <v>117.5341365238099</v>
       </c>
       <c r="C31" t="n">
-        <v>1.568373972863137</v>
+        <v>115.5365121148684</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.34</v>
+        <v>1.73</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3032637683958119</v>
+        <v>5.460722390397343</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2648030111761457</v>
+        <v>7.273890019106632</v>
       </c>
       <c r="G31" t="n">
-        <v>1.205882352941176</v>
+        <v>112.6087244898273</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9</v>
+        <v>103.5803102156773</v>
       </c>
       <c r="I31" t="n">
-        <v>1.911764705882353</v>
+        <v>126.7737908823409</v>
       </c>
       <c r="J31" t="n">
-        <v>1.911764705882353</v>
+        <v>127.1386309356154</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_medium_pressure_per_match</t>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>21.22893935952759</v>
+        <v>17.14009536969377</v>
       </c>
       <c r="C32" t="n">
-        <v>20.81497534927876</v>
+        <v>16.85865807499576</v>
       </c>
       <c r="D32" t="n">
-        <v>1.99</v>
+        <v>1.67</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8999365644935382</v>
+        <v>1.847941916832071</v>
       </c>
       <c r="F32" t="n">
-        <v>1.903527721944339</v>
+        <v>1.702696334834557</v>
       </c>
       <c r="G32" t="n">
-        <v>20.41176470588235</v>
+        <v>14.93942197761653</v>
       </c>
       <c r="H32" t="n">
-        <v>16.73333333333333</v>
+        <v>13.37155710068285</v>
       </c>
       <c r="I32" t="n">
-        <v>22.32352941176471</v>
+        <v>19.35346434851416</v>
       </c>
       <c r="J32" t="n">
-        <v>24.17647058823529</v>
+        <v>19.37757385687885</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
+          <t>count_forced_losses_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.012514194867135</v>
+        <v>32.2622431947671</v>
       </c>
       <c r="C33" t="n">
-        <v>8.175167305538821</v>
+        <v>31.75641618218544</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.99</v>
+        <v>1.59</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2836688201309853</v>
+        <v>2.164363591174755</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8306341768243247</v>
+        <v>2.911228869671704</v>
       </c>
       <c r="G33" t="n">
-        <v>7.529411764705882</v>
+        <v>29.27850656627307</v>
       </c>
       <c r="H33" t="n">
-        <v>7.058823529411764</v>
+        <v>27.20531506375753</v>
       </c>
       <c r="I33" t="n">
-        <v>8.243243243243244</v>
+        <v>34.90734468935121</v>
       </c>
       <c r="J33" t="n">
-        <v>10.38888888888889</v>
+        <v>37.59112842312931</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_high_pressure</t>
+          <t>difficult_pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.81350239843017</v>
+        <v>29.03241557216747</v>
       </c>
       <c r="C34" t="n">
-        <v>69.48591413348657</v>
+        <v>29.45111304321875</v>
       </c>
       <c r="D34" t="n">
-        <v>1.91</v>
+        <v>-1.42</v>
       </c>
       <c r="E34" t="n">
-        <v>1.815725196628921</v>
+        <v>1.895486112947568</v>
       </c>
       <c r="F34" t="n">
-        <v>2.939829392007584</v>
+        <v>1.978666891629772</v>
       </c>
       <c r="G34" t="n">
-        <v>69.38534400837257</v>
+        <v>27.10915518123524</v>
       </c>
       <c r="H34" t="n">
-        <v>62.99198144257703</v>
+        <v>25.49606773408551</v>
       </c>
       <c r="I34" t="n">
-        <v>73.51929417886036</v>
+        <v>31.9915056221884</v>
       </c>
       <c r="J34" t="n">
-        <v>72.95941844997108</v>
+        <v>32.7426562871672</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
+          <t>difficult_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.165932318873495</v>
+        <v>9.058129895141162</v>
       </c>
       <c r="C35" t="n">
-        <v>3.119518297598793</v>
+        <v>9.155322920628318</v>
       </c>
       <c r="D35" t="n">
-        <v>1.49</v>
+        <v>-1.06</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3135114683929804</v>
+        <v>1.699702073960716</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4549432044393014</v>
+        <v>1.456285454215779</v>
       </c>
       <c r="G35" t="n">
-        <v>2.705882352941177</v>
+        <v>7.350404064829266</v>
       </c>
       <c r="H35" t="n">
-        <v>2.1</v>
+        <v>6.33735162143264</v>
       </c>
       <c r="I35" t="n">
-        <v>3.588235294117647</v>
+        <v>10.85968117777743</v>
       </c>
       <c r="J35" t="n">
-        <v>3.882352941176471</v>
+        <v>11.34950996723264</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
+          <t>pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>16.59984101748808</v>
+        <v>67.89836563524774</v>
       </c>
       <c r="C36" t="n">
-        <v>16.39540047586487</v>
+        <v>68.57840949351267</v>
       </c>
       <c r="D36" t="n">
-        <v>1.25</v>
+        <v>-0.99</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6327051077895033</v>
+        <v>1.770809242177174</v>
       </c>
       <c r="F36" t="n">
-        <v>1.536861269892184</v>
+        <v>6.14111534299896</v>
       </c>
       <c r="G36" t="n">
-        <v>15.91176470588235</v>
+        <v>66.27908978455123</v>
       </c>
       <c r="H36" t="n">
-        <v>13.96666666666667</v>
+        <v>62.57216853646855</v>
       </c>
       <c r="I36" t="n">
-        <v>17.32352941176471</v>
+        <v>70.58915882190381</v>
       </c>
       <c r="J36" t="n">
-        <v>20.13888888888889</v>
+        <v>88.26619257964617</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_medium_pressure</t>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>70.27352246452622</v>
+        <v>3.012331557587389</v>
       </c>
       <c r="C37" t="n">
-        <v>69.79589904264789</v>
+        <v>2.983472394947507</v>
       </c>
       <c r="D37" t="n">
-        <v>0.68</v>
+        <v>0.97</v>
       </c>
       <c r="E37" t="n">
-        <v>1.710135819709645</v>
+        <v>0.2814608637938387</v>
       </c>
       <c r="F37" t="n">
-        <v>3.137909798980143</v>
+        <v>0.4241263044196913</v>
       </c>
       <c r="G37" t="n">
-        <v>67.45644774343303</v>
+        <v>2.576501676559058</v>
       </c>
       <c r="H37" t="n">
-        <v>62.81668996444732</v>
+        <v>2.104960623294938</v>
       </c>
       <c r="I37" t="n">
-        <v>71.78426270913771</v>
+        <v>3.364067195655435</v>
       </c>
       <c r="J37" t="n">
-        <v>74.899191988567</v>
+        <v>3.776752541988117</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_medium_pressure</t>
+          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>70.24776213149538</v>
+        <v>7.979033697752797</v>
       </c>
       <c r="C38" t="n">
-        <v>69.79430690428634</v>
+        <v>7.910556348027777</v>
       </c>
       <c r="D38" t="n">
-        <v>0.65</v>
+        <v>0.87</v>
       </c>
       <c r="E38" t="n">
-        <v>1.304461667563658</v>
+        <v>0.8206016782978521</v>
       </c>
       <c r="F38" t="n">
-        <v>2.742128694822545</v>
+        <v>0.7980035516661185</v>
       </c>
       <c r="G38" t="n">
-        <v>68.31638472312001</v>
+        <v>7.109217823106871</v>
       </c>
       <c r="H38" t="n">
-        <v>63.61302184335273</v>
+        <v>6.517117584055092</v>
       </c>
       <c r="I38" t="n">
-        <v>71.92247854172854</v>
+        <v>9.063585489354924</v>
       </c>
       <c r="J38" t="n">
-        <v>74.02142685092684</v>
+        <v>9.097771994944228</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_high_pressure</t>
+          <t>count_forced_losses_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>68.60793091085996</v>
+        <v>20.1181091991524</v>
       </c>
       <c r="C39" t="n">
-        <v>68.16920923240119</v>
+        <v>20.01752234500624</v>
       </c>
       <c r="D39" t="n">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="E39" t="n">
-        <v>1.710268366112773</v>
+        <v>0.7579800974819222</v>
       </c>
       <c r="F39" t="n">
-        <v>2.19953577558586</v>
+        <v>1.680498890960334</v>
       </c>
       <c r="G39" t="n">
-        <v>66.19089027639028</v>
+        <v>19.43024119312445</v>
       </c>
       <c r="H39" t="n">
-        <v>63.28553288623142</v>
+        <v>17.36696500852356</v>
       </c>
       <c r="I39" t="n">
-        <v>70.39945944708445</v>
+        <v>20.99706030647988</v>
       </c>
       <c r="J39" t="n">
-        <v>72.23084847170374</v>
+        <v>23.74895712752945</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_high_pressure</t>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.3311730841193</v>
+        <v>15.80552951665431</v>
       </c>
       <c r="C40" t="n">
-        <v>30.16019528646619</v>
+        <v>15.77002763051491</v>
       </c>
       <c r="D40" t="n">
-        <v>0.57</v>
+        <v>0.23</v>
       </c>
       <c r="E40" t="n">
-        <v>2.239882472101038</v>
+        <v>0.5610181977602803</v>
       </c>
       <c r="F40" t="n">
-        <v>1.844194089765359</v>
+        <v>1.38643025151252</v>
       </c>
       <c r="G40" t="n">
-        <v>28.3553830455259</v>
+        <v>15.18026461482804</v>
       </c>
       <c r="H40" t="n">
-        <v>26.79649184611685</v>
+        <v>14.31884863755297</v>
       </c>
       <c r="I40" t="n">
-        <v>33.61770902626785</v>
+        <v>16.27455913624884</v>
       </c>
       <c r="J40" t="n">
-        <v>33.92207053898483</v>
+        <v>19.61698231061488</v>
       </c>
     </row>
   </sheetData>
